--- a/analysis/projections.xlsx
+++ b/analysis/projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF787F50-E941-4042-85E2-2A5294607135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA2A063-9B0A-4EEA-AD0D-27BF623FEFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AB24B4CF-B644-41FD-9CBA-E2F8290D40AE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{AB24B4CF-B644-41FD-9CBA-E2F8290D40AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t>year</t>
   </si>
@@ -686,6 +686,21 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>share GDP</t>
+  </si>
+  <si>
+    <t>formal social care</t>
+  </si>
+  <si>
+    <t>formal child care</t>
+  </si>
+  <si>
+    <t>informal social care</t>
+  </si>
+  <si>
+    <t>grossed up formal cost</t>
   </si>
 </sst>
 </file>
@@ -31588,7 +31603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43DBF06-1AB6-4782-BF06-E815896D9292}">
   <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -35873,7 +35888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41444,13 +41459,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5DCEC5-8078-4F73-952B-9FFD4FC1EAF4}">
-  <dimension ref="A1:CA57"/>
+  <dimension ref="A1:CF57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BC7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="BU34" sqref="BU33:BU34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41459,7 +41474,7 @@
     <col min="71" max="71" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>20</v>
       </c>
@@ -41493,11 +41508,14 @@
       <c r="BM1" t="s">
         <v>66</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BX1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -41678,14 +41696,26 @@
       <c r="BV2" t="s">
         <v>56</v>
       </c>
+      <c r="BX2" t="s">
+        <v>91</v>
+      </c>
       <c r="BY2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD2" t="s">
         <v>89</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CE2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -41867,7 +41897,7 @@
         <v>1.7</v>
       </c>
       <c r="BI3">
-        <f>BY3*(1+BH3/100)*(1+BH4/100)*(1+BH5/100)*(1+BH6/100)*(1+BH7/100)</f>
+        <f>CD3*(1+BH3/100)*(1+BH4/100)*(1+BH5/100)*(1+BH6/100)*(1+BH7/100)</f>
         <v>11.644722687582053</v>
       </c>
       <c r="BJ3">
@@ -41917,18 +41947,18 @@
         <f>BN3/BS3</f>
         <v>0.4267535666755462</v>
       </c>
-      <c r="BY3">
+      <c r="CD3">
         <v>9.5</v>
       </c>
-      <c r="BZ3">
+      <c r="CE3">
         <v>10.36</v>
       </c>
-      <c r="CA3">
-        <f>BZ3/BY3</f>
+      <c r="CF3">
+        <f>CE3/CD3</f>
         <v>1.0905263157894736</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -42106,7 +42136,7 @@
         <v>0.5</v>
       </c>
       <c r="BI4">
-        <f>BY4*(1+BH4/100)*(1+BH5/100)*(1+BH6/100)*(1+BH7/100)</f>
+        <f>CD4*(1+BH4/100)*(1+BH5/100)*(1+BH6/100)*(1+BH7/100)</f>
         <v>12.076812226835605</v>
       </c>
       <c r="BJ4">
@@ -42141,7 +42171,7 @@
         <v>5.4651828080394695</v>
       </c>
       <c r="BS4">
-        <f t="shared" ref="BS4:BS53" si="27">SUM(BM4:BR4)</f>
+        <f>SUM(BM4:BR4)</f>
         <v>35.287696478571696</v>
       </c>
       <c r="BT4">
@@ -42149,25 +42179,49 @@
         <v>1.618428075360508E-2</v>
       </c>
       <c r="BU4">
-        <f t="shared" ref="BU4:BU53" si="28">BR4/BS4</f>
+        <f t="shared" ref="BU4:BU53" si="27">BR4/BS4</f>
         <v>0.15487502312195919</v>
       </c>
       <c r="BV4">
-        <f t="shared" ref="BV4:BV53" si="29">BN4/BS4</f>
+        <f t="shared" ref="BV4:BV53" si="28">BN4/BS4</f>
         <v>0.52330698863905223</v>
       </c>
+      <c r="BX4">
+        <f>BR4/BJ4*1000</f>
+        <v>2.5065408559268657E-3</v>
+      </c>
       <c r="BY4">
+        <f>BR4*$BW$6/BJ4*1000</f>
+        <v>8.7022862110700348E-3</v>
+      </c>
+      <c r="BZ4">
+        <f>SUM(BM4:BQ4)/BJ4*1000</f>
+        <v>1.3677739897678213E-2</v>
+      </c>
+      <c r="CA4">
+        <f>childcare!Y3/'social care receipt'!BJ4*1000</f>
+        <v>2.5193991922769928E-3</v>
+      </c>
+      <c r="CB4">
+        <f>BZ4/BX4</f>
+        <v>5.4568190521755824</v>
+      </c>
+      <c r="CC4">
+        <f>BZ4/BY4</f>
+        <v>1.5717409846022974</v>
+      </c>
+      <c r="CD4">
         <v>10.02</v>
       </c>
-      <c r="BZ4">
+      <c r="CE4">
         <v>10.84</v>
       </c>
-      <c r="CA4">
-        <f t="shared" ref="CA4:CA7" si="30">BZ4/BY4</f>
+      <c r="CF4">
+        <f t="shared" ref="CF4:CF7" si="29">CE4/CD4</f>
         <v>1.0818363273453093</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -42345,7 +42399,7 @@
         <v>3.1</v>
       </c>
       <c r="BI5">
-        <f>BY5*(1+BH5/100)*(1+BH6/100)*(1+BH7/100)</f>
+        <f>CD5*(1+BH5/100)*(1+BH6/100)*(1+BH7/100)</f>
         <v>12.280568932065881</v>
       </c>
       <c r="BJ5">
@@ -42380,7 +42434,7 @@
         <v>5.1908381243053006</v>
       </c>
       <c r="BS5">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="BS5:BS53" si="30">SUM(BM5:BR5)</f>
         <v>37.742433283031225</v>
       </c>
       <c r="BT5">
@@ -42388,25 +42442,49 @@
         <v>1.602729054148197E-2</v>
       </c>
       <c r="BU5">
+        <f t="shared" si="27"/>
+        <v>0.13753321322393569</v>
+      </c>
+      <c r="BV5">
         <f t="shared" si="28"/>
-        <v>0.13753321322393569</v>
-      </c>
-      <c r="BV5">
+        <v>0.54824174177617591</v>
+      </c>
+      <c r="BX5">
+        <f t="shared" ref="BX5:BX54" si="32">BR5/BJ5*1000</f>
+        <v>2.2042847674436077E-3</v>
+      </c>
+      <c r="BY5">
+        <f t="shared" ref="BY5:BY54" si="33">BR5*$BW$6/BJ5*1000</f>
+        <v>7.6529041573922436E-3</v>
+      </c>
+      <c r="BZ5">
+        <f t="shared" ref="BZ5:BZ54" si="34">SUM(BM5:BQ5)/BJ5*1000</f>
+        <v>1.3823005774038364E-2</v>
+      </c>
+      <c r="CA5">
+        <f>childcare!Y4/'social care receipt'!BJ5*1000</f>
+        <v>2.4727878415380347E-3</v>
+      </c>
+      <c r="CB5">
+        <f t="shared" ref="CB5:CB54" si="35">BZ5/BX5</f>
+        <v>6.2709709644591092</v>
+      </c>
+      <c r="CC5">
+        <f t="shared" ref="CC5:CC54" si="36">BZ5/BY5</f>
+        <v>1.806243158120068</v>
+      </c>
+      <c r="CD5">
+        <v>10.24</v>
+      </c>
+      <c r="CE5">
+        <v>11.08</v>
+      </c>
+      <c r="CF5">
         <f t="shared" si="29"/>
-        <v>0.54824174177617591</v>
-      </c>
-      <c r="BY5">
-        <v>10.24</v>
-      </c>
-      <c r="BZ5">
-        <v>11.08</v>
-      </c>
-      <c r="CA5">
-        <f t="shared" si="30"/>
         <v>1.08203125</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -42590,11 +42668,15 @@
         <v>10.036409874522789</v>
       </c>
       <c r="BI6">
-        <f>BY6*(1+BH6/100)*(1+BH7/100)</f>
+        <f>CD6*(1+BH6/100)*(1+BH7/100)</f>
         <v>12.806993356537696</v>
       </c>
       <c r="BJ6">
         <v>2505981</v>
+      </c>
+      <c r="BK6">
+        <f>14200/BJ6</f>
+        <v>5.6664436003305693E-3</v>
       </c>
       <c r="BL6">
         <v>2022</v>
@@ -42624,7 +42706,7 @@
         <v>5.7966452701736477</v>
       </c>
       <c r="BS6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>42.123287106981522</v>
       </c>
       <c r="BT6">
@@ -42632,25 +42714,53 @@
         <v>1.6809100750157929E-2</v>
       </c>
       <c r="BU6">
+        <f t="shared" si="27"/>
+        <v>0.13761141801331336</v>
+      </c>
+      <c r="BV6">
         <f t="shared" si="28"/>
-        <v>0.13761141801331336</v>
-      </c>
-      <c r="BV6">
+        <v>0.56011033385201492</v>
+      </c>
+      <c r="BW6">
+        <f>(14.2+35.1)/14.2</f>
+        <v>3.471830985915493</v>
+      </c>
+      <c r="BX6">
+        <f t="shared" si="32"/>
+        <v>2.3131241897578823E-3</v>
+      </c>
+      <c r="BY6">
+        <f t="shared" si="33"/>
+        <v>8.0307762362720834E-3</v>
+      </c>
+      <c r="BZ6">
+        <f t="shared" si="34"/>
+        <v>1.4495976560400048E-2</v>
+      </c>
+      <c r="CA6">
+        <f>childcare!Y5/'social care receipt'!BJ6*1000</f>
+        <v>2.1272188176191193E-3</v>
+      </c>
+      <c r="CB6">
+        <f t="shared" si="35"/>
+        <v>6.2668388600083595</v>
+      </c>
+      <c r="CC6">
+        <f t="shared" si="36"/>
+        <v>1.8050529779334425</v>
+      </c>
+      <c r="CD6">
+        <v>11.01</v>
+      </c>
+      <c r="CE6">
+        <v>11.9</v>
+      </c>
+      <c r="CF6">
         <f t="shared" si="29"/>
-        <v>0.56011033385201492</v>
-      </c>
-      <c r="BY6">
-        <v>11.01</v>
-      </c>
-      <c r="BZ6">
-        <v>11.9</v>
-      </c>
-      <c r="CA6">
-        <f t="shared" si="30"/>
         <v>1.0808356039963669</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -42834,13 +42944,17 @@
         <v>5.7117963753504197</v>
       </c>
       <c r="BI7">
-        <f>BY7*(1+BH7/100)</f>
+        <f>CD7*(1+BH7/100)</f>
         <v>12.569132589029165</v>
       </c>
       <c r="BJ7">
         <f>2687186/(1+BH6/100)</f>
         <v>2442088.0352823795</v>
       </c>
+      <c r="BK7">
+        <f>34100/BJ6</f>
+        <v>1.3607445547272706E-2</v>
+      </c>
       <c r="BL7">
         <v>2023</v>
       </c>
@@ -42869,7 +42983,7 @@
         <v>5.9811861307509</v>
       </c>
       <c r="BS7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>42.472898004065087</v>
       </c>
       <c r="BT7">
@@ -42877,25 +42991,53 @@
         <v>1.7392042133793893E-2</v>
       </c>
       <c r="BU7">
+        <f t="shared" si="27"/>
+        <v>0.14082359367562911</v>
+      </c>
+      <c r="BV7">
         <f t="shared" si="28"/>
-        <v>0.14082359367562911</v>
-      </c>
-      <c r="BV7">
+        <v>0.56687753080050152</v>
+      </c>
+      <c r="BW7">
+        <f>14.2/BR6</f>
+        <v>2.4496927685165417</v>
+      </c>
+      <c r="BX7">
+        <f t="shared" si="32"/>
+        <v>2.4492098746388123E-3</v>
+      </c>
+      <c r="BY7">
+        <f t="shared" si="33"/>
+        <v>8.5032427337812279E-3</v>
+      </c>
+      <c r="BZ7">
+        <f t="shared" si="34"/>
+        <v>1.4942832259155079E-2</v>
+      </c>
+      <c r="CA7">
+        <f>childcare!Y6/'social care receipt'!BJ7*1000</f>
+        <v>2.2572111277047659E-3</v>
+      </c>
+      <c r="CB7">
+        <f t="shared" si="35"/>
+        <v>6.1010828079233983</v>
+      </c>
+      <c r="CC7">
+        <f t="shared" si="36"/>
+        <v>1.7573098554262121</v>
+      </c>
+      <c r="CD7">
+        <v>11.89</v>
+      </c>
+      <c r="CE7">
+        <v>12.85</v>
+      </c>
+      <c r="CF7">
         <f t="shared" si="29"/>
-        <v>0.56687753080050152</v>
-      </c>
-      <c r="BY7">
-        <v>11.89</v>
-      </c>
-      <c r="BZ7">
-        <v>12.85</v>
-      </c>
-      <c r="CA7">
-        <f t="shared" si="30"/>
         <v>1.080740117746005</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -43086,6 +43228,10 @@
         <f>BJ7*(1+BF7/100)</f>
         <v>2446925.2078344971</v>
       </c>
+      <c r="BK8">
+        <f>BK7/SUM(BK7,BK6)</f>
+        <v>0.70600414078674945</v>
+      </c>
       <c r="BL8">
         <v>2024</v>
       </c>
@@ -43114,7 +43260,7 @@
         <v>5.969648877696387</v>
       </c>
       <c r="BS8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>46.409700549672685</v>
       </c>
       <c r="BT8">
@@ -43122,15 +43268,39 @@
         <v>1.8966538250159586E-2</v>
       </c>
       <c r="BU8">
+        <f t="shared" si="27"/>
+        <v>0.12862933410455907</v>
+      </c>
+      <c r="BV8">
         <f t="shared" si="28"/>
-        <v>0.12862933410455907</v>
-      </c>
-      <c r="BV8">
-        <f t="shared" si="29"/>
         <v>0.58380815925621843</v>
       </c>
+      <c r="BX8">
+        <f t="shared" si="32"/>
+        <v>2.4396531853866769E-3</v>
+      </c>
+      <c r="BY8">
+        <f t="shared" si="33"/>
+        <v>8.4700635239128991E-3</v>
+      </c>
+      <c r="BZ8">
+        <f t="shared" si="34"/>
+        <v>1.6526885064772911E-2</v>
+      </c>
+      <c r="CA8">
+        <f>childcare!Y7/'social care receipt'!BJ8*1000</f>
+        <v>2.2425199630137535E-3</v>
+      </c>
+      <c r="CB8">
+        <f t="shared" si="35"/>
+        <v>6.7742764273904177</v>
+      </c>
+      <c r="CC8">
+        <f t="shared" si="36"/>
+        <v>1.9512114659014999</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -43318,7 +43488,7 @@
         <v>12.84838574743919</v>
       </c>
       <c r="BJ9">
-        <f t="shared" ref="BJ9:BJ53" si="32">BJ8*(1+BF8/100)</f>
+        <f t="shared" ref="BJ9:BJ53" si="37">BJ8*(1+BF8/100)</f>
         <v>2475317.7718325695</v>
       </c>
       <c r="BL9">
@@ -43349,7 +43519,7 @@
         <v>6.4156359924467177</v>
       </c>
       <c r="BS9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>48.360536060978092</v>
       </c>
       <c r="BT9">
@@ -43357,15 +43527,39 @@
         <v>1.9537102109186973E-2</v>
       </c>
       <c r="BU9">
+        <f t="shared" si="27"/>
+        <v>0.13266263186903476</v>
+      </c>
+      <c r="BV9">
         <f t="shared" si="28"/>
-        <v>0.13266263186903476</v>
-      </c>
-      <c r="BV9">
-        <f t="shared" si="29"/>
         <v>0.58429868701212095</v>
       </c>
+      <c r="BX9">
+        <f t="shared" si="32"/>
+        <v>2.5918433848988141E-3</v>
+      </c>
+      <c r="BY9">
+        <f t="shared" si="33"/>
+        <v>8.9984421743317996E-3</v>
+      </c>
+      <c r="BZ9">
+        <f t="shared" si="34"/>
+        <v>1.6945258724288158E-2</v>
+      </c>
+      <c r="CA9">
+        <f>childcare!Y8/'social care receipt'!BJ9*1000</f>
+        <v>2.2109370843177191E-3</v>
+      </c>
+      <c r="CB9">
+        <f t="shared" si="35"/>
+        <v>6.5379176932597352</v>
+      </c>
+      <c r="CC9">
+        <f t="shared" si="36"/>
+        <v>1.8831324796001669</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -43553,7 +43747,7 @@
         <v>12.885993484076231</v>
       </c>
       <c r="BJ10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2523015.5543302349</v>
       </c>
       <c r="BL10">
@@ -43584,7 +43778,7 @@
         <v>6.1997480386549233</v>
       </c>
       <c r="BS10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>49.59437912982338</v>
       </c>
       <c r="BT10">
@@ -43592,15 +43786,39 @@
         <v>1.9656786913067135E-2</v>
       </c>
       <c r="BU10">
+        <f t="shared" si="27"/>
+        <v>0.12500908666334587</v>
+      </c>
+      <c r="BV10">
         <f t="shared" si="28"/>
-        <v>0.12500908666334587</v>
-      </c>
-      <c r="BV10">
-        <f t="shared" si="29"/>
         <v>0.59199917628564858</v>
       </c>
+      <c r="BX10">
+        <f t="shared" si="32"/>
+        <v>2.4572769787385325E-3</v>
+      </c>
+      <c r="BY10">
+        <f t="shared" si="33"/>
+        <v>8.531250355761244E-3</v>
+      </c>
+      <c r="BZ10">
+        <f t="shared" si="34"/>
+        <v>1.7199509934328602E-2</v>
+      </c>
+      <c r="CA10">
+        <f>childcare!Y9/'social care receipt'!BJ10*1000</f>
+        <v>2.1191232354734191E-3</v>
+      </c>
+      <c r="CB10">
+        <f t="shared" si="35"/>
+        <v>6.9994184958173262</v>
+      </c>
+      <c r="CC10">
+        <f t="shared" si="36"/>
+        <v>2.0160596884504263</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -43784,11 +44002,11 @@
         <v>1.9720600754096651</v>
       </c>
       <c r="BI11">
-        <f t="shared" ref="BI11:BI53" si="33">BI10*(1+BG10/100)/(1+BH10/100)</f>
+        <f t="shared" ref="BI11:BI53" si="38">BI10*(1+BG10/100)/(1+BH10/100)</f>
         <v>12.941356116871521</v>
       </c>
       <c r="BJ11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2573095.3168439749</v>
       </c>
       <c r="BL11">
@@ -43819,7 +44037,7 @@
         <v>6.5069806821208385</v>
       </c>
       <c r="BS11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>51.342191147430377</v>
       </c>
       <c r="BT11">
@@ -43827,15 +44045,39 @@
         <v>1.9953474249995544E-2</v>
       </c>
       <c r="BU11">
+        <f t="shared" si="27"/>
+        <v>0.12673749477181218</v>
+      </c>
+      <c r="BV11">
         <f t="shared" si="28"/>
-        <v>0.12673749477181218</v>
-      </c>
-      <c r="BV11">
-        <f t="shared" si="29"/>
         <v>0.59398225703999563</v>
       </c>
+      <c r="BX11">
+        <f t="shared" si="32"/>
+        <v>2.5288533384382988E-3</v>
+      </c>
+      <c r="BY11">
+        <f t="shared" si="33"/>
+        <v>8.7797513792259255E-3</v>
+      </c>
+      <c r="BZ11">
+        <f t="shared" si="34"/>
+        <v>1.7424620911557245E-2</v>
+      </c>
+      <c r="CA11">
+        <f>childcare!Y10/'social care receipt'!BJ11*1000</f>
+        <v>2.0443450539768628E-3</v>
+      </c>
+      <c r="CB11">
+        <f t="shared" si="35"/>
+        <v>6.8903248150870908</v>
+      </c>
+      <c r="CC11">
+        <f t="shared" si="36"/>
+        <v>1.9846371678344155</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -44019,11 +44261,11 @@
         <v>2.0000331698054374</v>
       </c>
       <c r="BI12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>12.986310727095125</v>
       </c>
       <c r="BJ12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2618982.496075884</v>
       </c>
       <c r="BL12">
@@ -44054,7 +44296,7 @@
         <v>6.3131051233968014</v>
       </c>
       <c r="BS12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>53.176355796607716</v>
       </c>
       <c r="BT12">
@@ -44062,15 +44304,39 @@
         <v>2.0304204352752937E-2</v>
       </c>
       <c r="BU12">
+        <f t="shared" si="27"/>
+        <v>0.11872015351227837</v>
+      </c>
+      <c r="BV12">
         <f t="shared" si="28"/>
-        <v>0.11872015351227837</v>
-      </c>
-      <c r="BV12">
-        <f t="shared" si="29"/>
         <v>0.60167297513993478</v>
       </c>
+      <c r="BX12">
+        <f t="shared" si="32"/>
+        <v>2.4105182577034991E-3</v>
+      </c>
+      <c r="BY12">
+        <f t="shared" si="33"/>
+        <v>8.3689119792100357E-3</v>
+      </c>
+      <c r="BZ12">
+        <f t="shared" si="34"/>
+        <v>1.7893686095049439E-2</v>
+      </c>
+      <c r="CA12">
+        <f>childcare!Y11/'social care receipt'!BJ12*1000</f>
+        <v>1.8395634832292457E-3</v>
+      </c>
+      <c r="CB12">
+        <f t="shared" si="35"/>
+        <v>7.4231697013142544</v>
+      </c>
+      <c r="CC12">
+        <f t="shared" si="36"/>
+        <v>2.1381137882081624</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -44254,11 +44520,11 @@
         <v>2</v>
       </c>
       <c r="BI13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>13.06133240072422</v>
       </c>
       <c r="BJ13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2663135.3668211563</v>
       </c>
       <c r="BL13">
@@ -44289,7 +44555,7 @@
         <v>6.9958800506234757</v>
       </c>
       <c r="BS13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>53.835358062464906</v>
       </c>
       <c r="BT13">
@@ -44297,15 +44563,39 @@
         <v>2.0215028771415899E-2</v>
       </c>
       <c r="BU13">
+        <f t="shared" si="27"/>
+        <v>0.1299495406440167</v>
+      </c>
+      <c r="BV13">
         <f t="shared" si="28"/>
-        <v>0.1299495406440167</v>
-      </c>
-      <c r="BV13">
-        <f t="shared" si="29"/>
         <v>0.59453994599494042</v>
       </c>
+      <c r="BX13">
+        <f t="shared" si="32"/>
+        <v>2.6269337029510773E-3</v>
+      </c>
+      <c r="BY13">
+        <f t="shared" si="33"/>
+        <v>9.1202698278512739E-3</v>
+      </c>
+      <c r="BZ13">
+        <f t="shared" si="34"/>
+        <v>1.7588095068464822E-2</v>
+      </c>
+      <c r="CA13">
+        <f>childcare!Y12/'social care receipt'!BJ13*1000</f>
+        <v>2.0202561756727574E-3</v>
+      </c>
+      <c r="CB13">
+        <f t="shared" si="35"/>
+        <v>6.6952946123864834</v>
+      </c>
+      <c r="CC13">
+        <f t="shared" si="36"/>
+        <v>1.928462139876026</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -44489,11 +44779,11 @@
         <v>2</v>
       </c>
       <c r="BI14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>13.257315166463455</v>
       </c>
       <c r="BJ14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2713130.2089307131</v>
       </c>
       <c r="BL14">
@@ -44524,7 +44814,7 @@
         <v>7.4390339739420126</v>
       </c>
       <c r="BS14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>57.847356992401146</v>
       </c>
       <c r="BT14">
@@ -44532,15 +44822,39 @@
         <v>2.1321260882351714E-2</v>
       </c>
       <c r="BU14">
+        <f t="shared" si="27"/>
+        <v>0.12859764664648737</v>
+      </c>
+      <c r="BV14">
         <f t="shared" si="28"/>
-        <v>0.12859764664648737</v>
-      </c>
-      <c r="BV14">
-        <f t="shared" si="29"/>
         <v>0.60573401942152438</v>
       </c>
+      <c r="BX14">
+        <f t="shared" si="32"/>
+        <v>2.7418639730062391E-3</v>
+      </c>
+      <c r="BY14">
+        <f t="shared" si="33"/>
+        <v>9.5192883006484218E-3</v>
+      </c>
+      <c r="BZ14">
+        <f t="shared" si="34"/>
+        <v>1.8579396909345475E-2</v>
+      </c>
+      <c r="CA14">
+        <f>childcare!Y13/'social care receipt'!BJ14*1000</f>
+        <v>1.8146820148386058E-3</v>
+      </c>
+      <c r="CB14">
+        <f t="shared" si="35"/>
+        <v>6.7761920694317386</v>
+      </c>
+      <c r="CC14">
+        <f t="shared" si="36"/>
+        <v>1.9517632329803385</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -44724,11 +45038,11 @@
         <v>2</v>
       </c>
       <c r="BI15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>13.462886769321399</v>
       </c>
       <c r="BJ15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2763487.3074497152</v>
       </c>
       <c r="BL15">
@@ -44759,7 +45073,7 @@
         <v>7.2093268716887096</v>
       </c>
       <c r="BS15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>58.731482488903779</v>
       </c>
       <c r="BT15">
@@ -44767,15 +45081,39 @@
         <v>2.1252669527584745E-2</v>
       </c>
       <c r="BU15">
+        <f t="shared" si="27"/>
+        <v>0.12275063673134383</v>
+      </c>
+      <c r="BV15">
         <f t="shared" si="28"/>
-        <v>0.12275063673134383</v>
-      </c>
-      <c r="BV15">
-        <f t="shared" si="29"/>
         <v>0.60699311155033708</v>
       </c>
+      <c r="BX15">
+        <f t="shared" si="32"/>
+        <v>2.6087787167518557E-3</v>
+      </c>
+      <c r="BY15">
+        <f t="shared" si="33"/>
+        <v>9.0572387842159513E-3</v>
+      </c>
+      <c r="BZ15">
+        <f t="shared" si="34"/>
+        <v>1.864389081083289E-2</v>
+      </c>
+      <c r="CA15">
+        <f>childcare!Y14/'social care receipt'!BJ15*1000</f>
+        <v>1.7704503806567488E-3</v>
+      </c>
+      <c r="CB15">
+        <f t="shared" si="35"/>
+        <v>7.1465972530035318</v>
+      </c>
+      <c r="CC15">
+        <f t="shared" si="36"/>
+        <v>2.0584519471125788</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -44959,11 +45297,11 @@
         <v>2</v>
       </c>
       <c r="BI16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>13.678397264169124</v>
       </c>
       <c r="BJ16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2815087.425501979</v>
       </c>
       <c r="BL16">
@@ -44994,7 +45332,7 @@
         <v>7.8698379950306157</v>
       </c>
       <c r="BS16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>60.641056268190162</v>
       </c>
       <c r="BT16">
@@ -45002,15 +45340,39 @@
         <v>2.1541446890366755E-2</v>
       </c>
       <c r="BU16">
+        <f t="shared" si="27"/>
+        <v>0.12977738976421513</v>
+      </c>
+      <c r="BV16">
         <f t="shared" si="28"/>
-        <v>0.12977738976421513</v>
-      </c>
-      <c r="BV16">
-        <f t="shared" si="29"/>
         <v>0.59436605979780732</v>
       </c>
+      <c r="BX16">
+        <f t="shared" si="32"/>
+        <v>2.7955927491762666E-3</v>
+      </c>
+      <c r="BY16">
+        <f t="shared" si="33"/>
+        <v>9.7058255305908416E-3</v>
+      </c>
+      <c r="BZ16">
+        <f t="shared" si="34"/>
+        <v>1.8745854141190489E-2</v>
+      </c>
+      <c r="CA16">
+        <f>childcare!Y15/'social care receipt'!BJ16*1000</f>
+        <v>1.8298649836216313E-3</v>
+      </c>
+      <c r="CB16">
+        <f t="shared" si="35"/>
+        <v>6.70550249020142</v>
+      </c>
+      <c r="CC16">
+        <f t="shared" si="36"/>
+        <v>1.9314023399768794</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -45194,11 +45556,11 @@
         <v>2</v>
       </c>
       <c r="BI17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>13.904216910569346</v>
       </c>
       <c r="BJ17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2868876.362340881</v>
       </c>
       <c r="BL17">
@@ -45229,7 +45591,7 @@
         <v>8.114744167926311</v>
       </c>
       <c r="BS17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>62.499854640503436</v>
       </c>
       <c r="BT17">
@@ -45237,15 +45599,39 @@
         <v>2.1785482100562262E-2</v>
       </c>
       <c r="BU17">
+        <f t="shared" si="27"/>
+        <v>0.12983620865363579</v>
+      </c>
+      <c r="BV17">
         <f t="shared" si="28"/>
-        <v>0.12983620865363579</v>
-      </c>
-      <c r="BV17">
-        <f t="shared" si="29"/>
         <v>0.59921919751574315</v>
       </c>
+      <c r="BX17">
+        <f t="shared" si="32"/>
+        <v>2.8285443996286497E-3</v>
+      </c>
+      <c r="BY17">
+        <f t="shared" si="33"/>
+        <v>9.8202280916684804E-3</v>
+      </c>
+      <c r="BZ17">
+        <f t="shared" si="34"/>
+        <v>1.895693770093361E-2</v>
+      </c>
+      <c r="CA17">
+        <f>childcare!Y16/'social care receipt'!BJ17*1000</f>
+        <v>1.6519754702751079E-3</v>
+      </c>
+      <c r="CB17">
+        <f t="shared" si="35"/>
+        <v>6.7020117143723832</v>
+      </c>
+      <c r="CC17">
+        <f t="shared" si="36"/>
+        <v>1.930396883247218</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -45429,11 +45815,11 @@
         <v>2</v>
       </c>
       <c r="BI18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>14.137270130140209</v>
       </c>
       <c r="BJ18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2924267.6083625192</v>
       </c>
       <c r="BL18">
@@ -45464,7 +45850,7 @@
         <v>8.265695749703605</v>
       </c>
       <c r="BS18">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>65.758426703972034</v>
       </c>
       <c r="BT18">
@@ -45472,15 +45858,39 @@
         <v>2.2487143965867849E-2</v>
       </c>
       <c r="BU18">
+        <f t="shared" si="27"/>
+        <v>0.12569789400396844</v>
+      </c>
+      <c r="BV18">
         <f t="shared" si="28"/>
-        <v>0.12569789400396844</v>
-      </c>
-      <c r="BV18">
-        <f t="shared" si="29"/>
         <v>0.59661145336000831</v>
       </c>
+      <c r="BX18">
+        <f t="shared" si="32"/>
+        <v>2.826586638673636E-3</v>
+      </c>
+      <c r="BY18">
+        <f t="shared" si="33"/>
+        <v>9.8134310765218471E-3</v>
+      </c>
+      <c r="BZ18">
+        <f t="shared" si="34"/>
+        <v>1.9660557327194215E-2</v>
+      </c>
+      <c r="CA18">
+        <f>childcare!Y17/'social care receipt'!BJ18*1000</f>
+        <v>1.7453150065318355E-3</v>
+      </c>
+      <c r="CB18">
+        <f t="shared" si="35"/>
+        <v>6.9555827718834227</v>
+      </c>
+      <c r="CC18">
+        <f t="shared" si="36"/>
+        <v>2.0034335772970508</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -45605,11 +46015,11 @@
         <v>3861813.5759521471</v>
       </c>
       <c r="AO19">
-        <f t="shared" ref="AO19:AO53" si="34">AK19*$Q$3</f>
+        <f t="shared" ref="AO19:AO53" si="39">AK19*$Q$3</f>
         <v>948378.67504433729</v>
       </c>
       <c r="AP19">
-        <f t="shared" ref="AP19:AP53" si="35">AL19*$Q$3</f>
+        <f t="shared" ref="AP19:AP53" si="40">AL19*$Q$3</f>
         <v>480824.08545457758</v>
       </c>
       <c r="AR19" s="3">
@@ -45664,11 +46074,11 @@
         <v>2</v>
       </c>
       <c r="BI19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>14.374229632495762</v>
       </c>
       <c r="BJ19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2980248.5955663621</v>
       </c>
       <c r="BL19">
@@ -45699,7 +46109,7 @@
         <v>8.3025516428029658</v>
       </c>
       <c r="BS19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>66.627990538801711</v>
       </c>
       <c r="BT19">
@@ -45707,15 +46117,39 @@
         <v>2.2356521076101647E-2</v>
       </c>
       <c r="BU19">
+        <f t="shared" si="27"/>
+        <v>0.1246105664550676</v>
+      </c>
+      <c r="BV19">
         <f t="shared" si="28"/>
-        <v>0.1246105664550676</v>
-      </c>
-      <c r="BV19">
-        <f t="shared" si="29"/>
         <v>0.59711775844574788</v>
       </c>
+      <c r="BX19">
+        <f t="shared" si="32"/>
+        <v>2.7858587552576836E-3</v>
+      </c>
+      <c r="BY19">
+        <f t="shared" si="33"/>
+        <v>9.6720307488875924E-3</v>
+      </c>
+      <c r="BZ19">
+        <f t="shared" si="34"/>
+        <v>1.9570662320843965E-2</v>
+      </c>
+      <c r="CA19">
+        <f>childcare!Y18/'social care receipt'!BJ19*1000</f>
+        <v>1.8394544258424051E-3</v>
+      </c>
+      <c r="CB19">
+        <f t="shared" si="35"/>
+        <v>7.0250016386899476</v>
+      </c>
+      <c r="CC19">
+        <f t="shared" si="36"/>
+        <v>2.023428463882297</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -45840,11 +46274,11 @@
         <v>3864935.8102732804</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>967112.08097113902</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>488239.39196726994</v>
       </c>
       <c r="AR20" s="3">
@@ -45899,11 +46333,11 @@
         <v>2</v>
       </c>
       <c r="BI20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>14.615160892145312</v>
       </c>
       <c r="BJ20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3037092.4734949507</v>
       </c>
       <c r="BL20">
@@ -45934,7 +46368,7 @@
         <v>8.8556382515465497</v>
       </c>
       <c r="BS20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>68.60342968525822</v>
       </c>
       <c r="BT20">
@@ -45942,15 +46376,39 @@
         <v>2.2588521845800909E-2</v>
       </c>
       <c r="BU20">
+        <f t="shared" si="27"/>
+        <v>0.12908448297956573</v>
+      </c>
+      <c r="BV20">
         <f t="shared" si="28"/>
-        <v>0.12908448297956573</v>
-      </c>
-      <c r="BV20">
-        <f t="shared" si="29"/>
         <v>0.59069949981766479</v>
       </c>
+      <c r="BX20">
+        <f t="shared" si="32"/>
+        <v>2.9158276637378366E-3</v>
+      </c>
+      <c r="BY20">
+        <f t="shared" si="33"/>
+        <v>1.0123260832554602E-2</v>
+      </c>
+      <c r="BZ20">
+        <f t="shared" si="34"/>
+        <v>1.9672694182063077E-2</v>
+      </c>
+      <c r="CA20">
+        <f>childcare!Y19/'social care receipt'!BJ20*1000</f>
+        <v>1.6147920386796223E-3</v>
+      </c>
+      <c r="CB20">
+        <f t="shared" si="35"/>
+        <v>6.7468645101077067</v>
+      </c>
+      <c r="CC20">
+        <f t="shared" si="36"/>
+        <v>1.943315944087818</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -46075,11 +46533,11 @@
         <v>3841519.0528647783</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1003408.0549543173</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>496825.53635038738</v>
       </c>
       <c r="AR21" s="3">
@@ -46134,11 +46592,11 @@
         <v>2</v>
       </c>
       <c r="BI21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>14.878018859367277</v>
       </c>
       <c r="BJ21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3098625.8959617703</v>
       </c>
       <c r="BL21">
@@ -46169,7 +46627,7 @@
         <v>9.4096869435156076</v>
       </c>
       <c r="BS21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>71.117339277777674</v>
       </c>
       <c r="BT21">
@@ -46177,15 +46635,39 @@
         <v>2.2951250543171441E-2</v>
       </c>
       <c r="BU21">
+        <f t="shared" si="27"/>
+        <v>0.13231213427097224</v>
+      </c>
+      <c r="BV21">
         <f t="shared" si="28"/>
-        <v>0.13231213427097224</v>
-      </c>
-      <c r="BV21">
-        <f t="shared" si="29"/>
         <v>0.59273060265714628</v>
       </c>
+      <c r="BX21">
+        <f t="shared" si="32"/>
+        <v>3.0367289435548239E-3</v>
+      </c>
+      <c r="BY21">
+        <f t="shared" si="33"/>
+        <v>1.0543009642060059E-2</v>
+      </c>
+      <c r="BZ21">
+        <f t="shared" si="34"/>
+        <v>1.9914521599616618E-2</v>
+      </c>
+      <c r="CA21">
+        <f>childcare!Y20/'social care receipt'!BJ21*1000</f>
+        <v>1.5070001749759902E-3</v>
+      </c>
+      <c r="CB21">
+        <f t="shared" si="35"/>
+        <v>6.557885794148123</v>
+      </c>
+      <c r="CC21">
+        <f t="shared" si="36"/>
+        <v>1.8888839407079785</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -46310,11 +46792,11 @@
         <v>3902402.6221268838</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>995992.74844162492</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>541317.37542654143</v>
       </c>
       <c r="AR22" s="3">
@@ -46369,11 +46851,11 @@
         <v>2</v>
       </c>
       <c r="BI22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>15.145604404440894</v>
       </c>
       <c r="BJ22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3161047.291365006</v>
       </c>
       <c r="BL22">
@@ -46404,7 +46886,7 @@
         <v>9.3812904176014449</v>
       </c>
       <c r="BS22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>70.547041896980787</v>
       </c>
       <c r="BT22">
@@ -46412,15 +46894,39 @@
         <v>2.231761672458785E-2</v>
       </c>
       <c r="BU22">
+        <f t="shared" si="27"/>
+        <v>0.13297921734692802</v>
+      </c>
+      <c r="BV22">
         <f t="shared" si="28"/>
-        <v>0.13297921734692802</v>
-      </c>
-      <c r="BV22">
-        <f t="shared" si="29"/>
         <v>0.58362168657238811</v>
       </c>
+      <c r="BX22">
+        <f t="shared" si="32"/>
+        <v>2.9677792050844037E-3</v>
+      </c>
+      <c r="BY22">
+        <f t="shared" si="33"/>
+        <v>1.0303627803567682E-2</v>
+      </c>
+      <c r="BZ22">
+        <f t="shared" si="34"/>
+        <v>1.9349837519503449E-2</v>
+      </c>
+      <c r="CA22">
+        <f>childcare!Y21/'social care receipt'!BJ22*1000</f>
+        <v>1.3977832631146708E-3</v>
+      </c>
+      <c r="CB22">
+        <f t="shared" si="35"/>
+        <v>6.5199720674480366</v>
+      </c>
+      <c r="CC22">
+        <f t="shared" si="36"/>
+        <v>1.8779635569525785</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2039</v>
       </c>
@@ -46545,11 +47051,11 @@
         <v>3883278.9369099406</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1034630.3981656536</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>559660.50206320151</v>
       </c>
       <c r="AR23" s="3">
@@ -46604,11 +47110,11 @@
         <v>2</v>
       </c>
       <c r="BI23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>15.418002554244291</v>
       </c>
       <c r="BJ23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3223963.4697181918</v>
       </c>
       <c r="BL23">
@@ -46639,7 +47145,7 @@
         <v>9.9135031776300444</v>
       </c>
       <c r="BS23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>73.983031982146656</v>
       </c>
       <c r="BT23">
@@ -46647,15 +47153,39 @@
         <v>2.2947850581139975E-2</v>
       </c>
       <c r="BU23">
+        <f t="shared" si="27"/>
+        <v>0.13399698433584525</v>
+      </c>
+      <c r="BV23">
         <f t="shared" si="28"/>
-        <v>0.13399698433584525</v>
-      </c>
-      <c r="BV23">
-        <f t="shared" si="29"/>
         <v>0.5903712967074396</v>
       </c>
+      <c r="BX23">
+        <f t="shared" si="32"/>
+        <v>3.0749427748623308E-3</v>
+      </c>
+      <c r="BY23">
+        <f t="shared" si="33"/>
+        <v>1.0675681605684009E-2</v>
+      </c>
+      <c r="BZ23">
+        <f t="shared" si="34"/>
+        <v>1.9872907806277641E-2</v>
+      </c>
+      <c r="CA23">
+        <f>childcare!Y22/'social care receipt'!BJ23*1000</f>
+        <v>1.630554316602626E-3</v>
+      </c>
+      <c r="CB23">
+        <f t="shared" si="35"/>
+        <v>6.462854518379574</v>
+      </c>
+      <c r="CC23">
+        <f t="shared" si="36"/>
+        <v>1.8615118491073011</v>
+      </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2040</v>
       </c>
@@ -46780,11 +47310,11 @@
         <v>3914891.5594114186</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1050241.5697713217</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>585418.93521255383</v>
       </c>
       <c r="AR24" s="3">
@@ -46839,11 +47369,11 @@
         <v>2</v>
       </c>
       <c r="BI24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>15.695299864889005</v>
       </c>
       <c r="BJ24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3288573.3673097566</v>
       </c>
       <c r="BL24">
@@ -46874,7 +47404,7 @@
         <v>10.376402509561318</v>
       </c>
       <c r="BS24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>74.421217282735839</v>
       </c>
       <c r="BT24">
@@ -46882,15 +47412,39 @@
         <v>2.2630243868822883E-2</v>
       </c>
       <c r="BU24">
+        <f t="shared" si="27"/>
+        <v>0.13942801378993872</v>
+      </c>
+      <c r="BV24">
         <f t="shared" si="28"/>
-        <v>0.13942801378993872</v>
-      </c>
-      <c r="BV24">
-        <f t="shared" si="29"/>
         <v>0.5781144262856911</v>
       </c>
+      <c r="BX24">
+        <f t="shared" si="32"/>
+        <v>3.155289954211913E-3</v>
+      </c>
+      <c r="BY24">
+        <f t="shared" si="33"/>
+        <v>1.0954633432580798E-2</v>
+      </c>
+      <c r="BZ24">
+        <f t="shared" si="34"/>
+        <v>1.947495391461097E-2</v>
+      </c>
+      <c r="CA24">
+        <f>childcare!Y23/'social care receipt'!BJ24*1000</f>
+        <v>1.5194484071054571E-3</v>
+      </c>
+      <c r="CB24">
+        <f t="shared" si="35"/>
+        <v>6.172159832288747</v>
+      </c>
+      <c r="CC24">
+        <f t="shared" si="36"/>
+        <v>1.7777823452028438</v>
+      </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2041</v>
       </c>
@@ -47015,11 +47569,11 @@
         <v>3971482.0564819654</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1064291.6242164229</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>603371.78255907213</v>
       </c>
       <c r="AR25" s="3">
@@ -47074,11 +47628,11 @@
         <v>2</v>
       </c>
       <c r="BI25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>15.977584449223697</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3352951.3405198748</v>
       </c>
       <c r="BL25">
@@ -47109,7 +47663,7 @@
         <v>11.022949774848229</v>
       </c>
       <c r="BS25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>78.178067080055499</v>
       </c>
       <c r="BT25">
@@ -47117,15 +47671,39 @@
         <v>2.3316194940047653E-2</v>
       </c>
       <c r="BU25">
+        <f t="shared" si="27"/>
+        <v>0.14099798302202285</v>
+      </c>
+      <c r="BV25">
         <f t="shared" si="28"/>
-        <v>0.14099798302202285</v>
-      </c>
-      <c r="BV25">
-        <f t="shared" si="29"/>
         <v>0.59072809194366549</v>
       </c>
+      <c r="BX25">
+        <f t="shared" si="32"/>
+        <v>3.2875364582950141E-3</v>
+      </c>
+      <c r="BY25">
+        <f t="shared" si="33"/>
+        <v>1.1413770943235505E-2</v>
+      </c>
+      <c r="BZ25">
+        <f t="shared" si="34"/>
+        <v>2.0028658481752636E-2</v>
+      </c>
+      <c r="CA25">
+        <f>childcare!Y24/'social care receipt'!BJ25*1000</f>
+        <v>1.4706384317712442E-3</v>
+      </c>
+      <c r="CB25">
+        <f t="shared" si="35"/>
+        <v>6.0923000355530421</v>
+      </c>
+      <c r="CC25">
+        <f t="shared" si="36"/>
+        <v>1.7547801319442839</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2042</v>
       </c>
@@ -47250,11 +47828,11 @@
         <v>4021437.8056201031</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1033459.5602952284</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>617421.83700417343</v>
       </c>
       <c r="AR26" s="3">
@@ -47309,11 +47887,11 @@
         <v>2</v>
       </c>
       <c r="BI26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>16.264946004832527</v>
       </c>
       <c r="BJ26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3417544.7695067348</v>
       </c>
       <c r="BL26">
@@ -47344,7 +47922,7 @@
         <v>11.595495909089628</v>
       </c>
       <c r="BS26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>79.348677660517865</v>
       </c>
       <c r="BT26">
@@ -47352,15 +47930,39 @@
         <v>2.3218036049889264E-2</v>
       </c>
       <c r="BU26">
+        <f t="shared" si="27"/>
+        <v>0.14613344860892735</v>
+      </c>
+      <c r="BV26">
         <f t="shared" si="28"/>
-        <v>0.14613344860892735</v>
-      </c>
-      <c r="BV26">
-        <f t="shared" si="29"/>
         <v>0.59088018733044423</v>
       </c>
+      <c r="BX26">
+        <f t="shared" si="32"/>
+        <v>3.392931677896715E-3</v>
+      </c>
+      <c r="BY26">
+        <f t="shared" si="33"/>
+        <v>1.177968533241606E-2</v>
+      </c>
+      <c r="BZ26">
+        <f t="shared" si="34"/>
+        <v>1.9825104371992544E-2</v>
+      </c>
+      <c r="CA26">
+        <f>childcare!Y25/'social care receipt'!BJ26*1000</f>
+        <v>1.3696276547529248E-3</v>
+      </c>
+      <c r="CB26">
+        <f t="shared" si="35"/>
+        <v>5.843060295361493</v>
+      </c>
+      <c r="CC26">
+        <f t="shared" si="36"/>
+        <v>1.6829909978526003</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2043</v>
       </c>
@@ -47485,11 +48087,11 @@
         <v>4049537.914510306</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1064681.9035065647</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>642399.71157324244</v>
       </c>
       <c r="AR27" s="3">
@@ -47544,11 +48146,11 @@
         <v>2</v>
       </c>
       <c r="BI27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>16.557475842537084</v>
       </c>
       <c r="BJ27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3482581.8479176951</v>
       </c>
       <c r="BL27">
@@ -47579,7 +48181,7 @@
         <v>11.606225367180375</v>
       </c>
       <c r="BS27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>81.357526342072674</v>
       </c>
       <c r="BT27">
@@ -47587,15 +48189,39 @@
         <v>2.3361267558067E-2</v>
       </c>
       <c r="BU27">
+        <f t="shared" si="27"/>
+        <v>0.14265705816056026</v>
+      </c>
+      <c r="BV27">
         <f t="shared" si="28"/>
-        <v>0.14265705816056026</v>
-      </c>
-      <c r="BV27">
-        <f t="shared" si="29"/>
         <v>0.57394284654590111</v>
       </c>
+      <c r="BX27">
+        <f t="shared" si="32"/>
+        <v>3.3326497047355737E-3</v>
+      </c>
+      <c r="BY27">
+        <f t="shared" si="33"/>
+        <v>1.1570396510103085E-2</v>
+      </c>
+      <c r="BZ27">
+        <f t="shared" si="34"/>
+        <v>2.0028617853331425E-2</v>
+      </c>
+      <c r="CA27">
+        <f>childcare!Y26/'social care receipt'!BJ27*1000</f>
+        <v>1.4827872403503266E-3</v>
+      </c>
+      <c r="CB27">
+        <f t="shared" si="35"/>
+        <v>6.0098179010147659</v>
+      </c>
+      <c r="CC27">
+        <f t="shared" si="36"/>
+        <v>1.7310226002922853</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2044</v>
       </c>
@@ -47720,11 +48346,11 @@
         <v>4078808.8612709334</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1067804.1378276981</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>682988.75774797949</v>
       </c>
       <c r="AR28" s="3">
@@ -47779,11 +48405,11 @@
         <v>2</v>
       </c>
       <c r="BI28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>16.855266915410947</v>
       </c>
       <c r="BJ28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3547758.5082249213</v>
       </c>
       <c r="BL28">
@@ -47814,7 +48440,7 @@
         <v>11.771093778634597</v>
       </c>
       <c r="BS28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>82.917068591488245</v>
       </c>
       <c r="BT28">
@@ -47822,15 +48448,39 @@
         <v>2.3371677750686253E-2</v>
       </c>
       <c r="BU28">
+        <f t="shared" si="27"/>
+        <v>0.14196225190530851</v>
+      </c>
+      <c r="BV28">
         <f t="shared" si="28"/>
-        <v>0.14196225190530851</v>
-      </c>
-      <c r="BV28">
-        <f t="shared" si="29"/>
         <v>0.57900245955767227</v>
       </c>
+      <c r="BX28">
+        <f t="shared" si="32"/>
+        <v>3.3178960042926156E-3</v>
+      </c>
+      <c r="BY28">
+        <f t="shared" si="33"/>
+        <v>1.1519174155748307E-2</v>
+      </c>
+      <c r="BZ28">
+        <f t="shared" si="34"/>
+        <v>2.0053781746393638E-2</v>
+      </c>
+      <c r="CA28">
+        <f>childcare!Y27/'social care receipt'!BJ28*1000</f>
+        <v>1.3881433086039003E-3</v>
+      </c>
+      <c r="CB28">
+        <f t="shared" si="35"/>
+        <v>6.0441260728029231</v>
+      </c>
+      <c r="CC28">
+        <f t="shared" si="36"/>
+        <v>1.740904467217069</v>
+      </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2045</v>
       </c>
@@ -47955,11 +48605,11 @@
         <v>4103396.456549861</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1110734.8597432855</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>688062.38851982169</v>
       </c>
       <c r="AR29" s="3">
@@ -48014,11 +48664,11 @@
         <v>2</v>
       </c>
       <c r="BI29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>17.158413848316059</v>
       </c>
       <c r="BJ29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3612966.9499854618</v>
       </c>
       <c r="BL29">
@@ -48049,7 +48699,7 @@
         <v>12.53307843600073</v>
       </c>
       <c r="BS29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>85.617063018546546</v>
       </c>
       <c r="BT29">
@@ -48057,15 +48707,39 @@
         <v>2.369716197345538E-2</v>
       </c>
       <c r="BU29">
+        <f t="shared" si="27"/>
+        <v>0.14638528809713772</v>
+      </c>
+      <c r="BV29">
         <f t="shared" si="28"/>
-        <v>0.14638528809713772</v>
-      </c>
-      <c r="BV29">
-        <f t="shared" si="29"/>
         <v>0.57010426691518123</v>
       </c>
+      <c r="BX29">
+        <f t="shared" si="32"/>
+        <v>3.4689158825688018E-3</v>
+      </c>
+      <c r="BY29">
+        <f t="shared" si="33"/>
+        <v>1.2043489648636756E-2</v>
+      </c>
+      <c r="BZ29">
+        <f t="shared" si="34"/>
+        <v>2.0228246090886574E-2</v>
+      </c>
+      <c r="CA29">
+        <f>childcare!Y28/'social care receipt'!BJ29*1000</f>
+        <v>1.4077383888525341E-3</v>
+      </c>
+      <c r="CB29">
+        <f t="shared" si="35"/>
+        <v>5.8312875767708592</v>
+      </c>
+      <c r="CC29">
+        <f t="shared" si="36"/>
+        <v>1.6796000728224381</v>
+      </c>
     </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2046</v>
       </c>
@@ -48190,11 +48864,11 @@
         <v>4119007.628155529</v>
       </c>
       <c r="AO30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1106832.0668418685</v>
       </c>
       <c r="AP30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>718504.17315087444</v>
       </c>
       <c r="AR30" s="3">
@@ -48249,11 +48923,11 @@
         <v>2</v>
       </c>
       <c r="BI30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>17.467012967970327</v>
       </c>
       <c r="BJ30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3679158.3203128055</v>
       </c>
       <c r="BL30">
@@ -48284,7 +48958,7 @@
         <v>12.65729032150578</v>
       </c>
       <c r="BS30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>85.205888008307326</v>
       </c>
       <c r="BT30">
@@ -48292,15 +48966,39 @@
         <v>2.3159070795589747E-2</v>
       </c>
       <c r="BU30">
+        <f t="shared" si="27"/>
+        <v>0.14854947958844969</v>
+      </c>
+      <c r="BV30">
         <f t="shared" si="28"/>
-        <v>0.14854947958844969</v>
-      </c>
-      <c r="BV30">
-        <f t="shared" si="29"/>
         <v>0.57010010088944796</v>
       </c>
+      <c r="BX30">
+        <f t="shared" si="32"/>
+        <v>3.440267914436921E-3</v>
+      </c>
+      <c r="BY30">
+        <f t="shared" si="33"/>
+        <v>1.194402874519297E-2</v>
+      </c>
+      <c r="BZ30">
+        <f t="shared" si="34"/>
+        <v>1.9718802881152828E-2</v>
+      </c>
+      <c r="CA30">
+        <f>childcare!Y29/'social care receipt'!BJ30*1000</f>
+        <v>1.4371964062995933E-3</v>
+      </c>
+      <c r="CB30">
+        <f t="shared" si="35"/>
+        <v>5.731763738051856</v>
+      </c>
+      <c r="CC30">
+        <f t="shared" si="36"/>
+        <v>1.6509339772887701</v>
+      </c>
     </row>
-    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2047</v>
       </c>
@@ -48425,11 +49123,11 @@
         <v>4099103.3843583022</v>
       </c>
       <c r="AO31">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1112295.9769038523</v>
       </c>
       <c r="AP31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>725138.92108328338</v>
       </c>
       <c r="AR31" s="3">
@@ -48484,11 +49182,11 @@
         <v>2</v>
       </c>
       <c r="BI31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>17.781162333556026</v>
       </c>
       <c r="BJ31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3746634.7027506093</v>
       </c>
       <c r="BL31">
@@ -48519,7 +49217,7 @@
         <v>13.05643389046574</v>
       </c>
       <c r="BS31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>87.997920221030611</v>
       </c>
       <c r="BT31">
@@ -48527,15 +49225,39 @@
         <v>2.3487189758965969E-2</v>
       </c>
       <c r="BU31">
+        <f t="shared" si="27"/>
+        <v>0.14837207354072654</v>
+      </c>
+      <c r="BV31">
         <f t="shared" si="28"/>
-        <v>0.14837207354072654</v>
-      </c>
-      <c r="BV31">
-        <f t="shared" si="29"/>
         <v>0.55663608986839574</v>
       </c>
+      <c r="BX31">
+        <f t="shared" si="32"/>
+        <v>3.4848430461822976E-3</v>
+      </c>
+      <c r="BY31">
+        <f t="shared" si="33"/>
+        <v>1.2098786068787837E-2</v>
+      </c>
+      <c r="BZ31">
+        <f t="shared" si="34"/>
+        <v>2.000234671278367E-2</v>
+      </c>
+      <c r="CA31">
+        <f>childcare!Y30/'social care receipt'!BJ31*1000</f>
+        <v>1.3000243998499833E-3</v>
+      </c>
+      <c r="CB31">
+        <f t="shared" si="35"/>
+        <v>5.7398127972209725</v>
+      </c>
+      <c r="CC31">
+        <f t="shared" si="36"/>
+        <v>1.6532523675565478</v>
+      </c>
     </row>
-    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2048</v>
       </c>
@@ -48660,11 +49382,11 @@
         <v>4101054.7808090108</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1157958.6538504316</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>743091.76842980168</v>
       </c>
       <c r="AR32" s="3">
@@ -48719,11 +49441,11 @@
         <v>2</v>
       </c>
       <c r="BI32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>18.100961767878658</v>
       </c>
       <c r="BJ32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3814805.2497926727</v>
       </c>
       <c r="BL32">
@@ -48754,7 +49476,7 @@
         <v>13.887543505061164</v>
       </c>
       <c r="BS32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>88.909047138193216</v>
       </c>
       <c r="BT32">
@@ -48762,15 +49484,39 @@
         <v>2.3306313511816956E-2</v>
       </c>
       <c r="BU32">
+        <f t="shared" si="27"/>
+        <v>0.15619944147501053</v>
+      </c>
+      <c r="BV32">
         <f t="shared" si="28"/>
-        <v>0.15619944147501053</v>
-      </c>
-      <c r="BV32">
-        <f t="shared" si="29"/>
         <v>0.54619150389689664</v>
       </c>
+      <c r="BX32">
+        <f t="shared" si="32"/>
+        <v>3.6404331533872992E-3</v>
+      </c>
+      <c r="BY32">
+        <f t="shared" si="33"/>
+        <v>1.2638968624084073E-2</v>
+      </c>
+      <c r="BZ32">
+        <f t="shared" si="34"/>
+        <v>1.9665880358429654E-2</v>
+      </c>
+      <c r="CA32">
+        <f>childcare!Y31/'social care receipt'!BJ32*1000</f>
+        <v>1.3165949401632219E-3</v>
+      </c>
+      <c r="CB32">
+        <f t="shared" si="35"/>
+        <v>5.4020715474836347</v>
+      </c>
+      <c r="CC32">
+        <f t="shared" si="36"/>
+        <v>1.5559719264557326</v>
+      </c>
     </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2049</v>
       </c>
@@ -48895,11 +49641,11 @@
         <v>4156864.719299274</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1161080.8881715653</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>758702.94003546983</v>
       </c>
       <c r="AR33" s="3">
@@ -48954,11 +49700,11 @@
         <v>2</v>
       </c>
       <c r="BI33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>18.426512889086236</v>
       </c>
       <c r="BJ33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3883310.8218489341</v>
       </c>
       <c r="BL33">
@@ -48989,7 +49735,7 @@
         <v>14.197467576425915</v>
       </c>
       <c r="BS33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>92.59866500201656</v>
       </c>
       <c r="BT33">
@@ -48997,15 +49743,39 @@
         <v>2.3845288015840099E-2</v>
       </c>
       <c r="BU33">
+        <f t="shared" si="27"/>
+        <v>0.15332259461966033</v>
+      </c>
+      <c r="BV33">
         <f t="shared" si="28"/>
-        <v>0.15332259461966033</v>
-      </c>
-      <c r="BV33">
-        <f t="shared" si="29"/>
         <v>0.55672939437871893</v>
       </c>
+      <c r="BX33">
+        <f t="shared" si="32"/>
+        <v>3.6560214280416965E-3</v>
+      </c>
+      <c r="BY33">
+        <f t="shared" si="33"/>
+        <v>1.2693088479046171E-2</v>
+      </c>
+      <c r="BZ33">
+        <f t="shared" si="34"/>
+        <v>2.0189266587798405E-2</v>
+      </c>
+      <c r="CA33">
+        <f>childcare!Y32/'social care receipt'!BJ33*1000</f>
+        <v>1.2778803876663412E-3</v>
+      </c>
+      <c r="CB33">
+        <f t="shared" si="35"/>
+        <v>5.5221959130071454</v>
+      </c>
+      <c r="CC33">
+        <f t="shared" si="36"/>
+        <v>1.5905716422860339</v>
+      </c>
     </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2050</v>
       </c>
@@ -49130,11 +49900,11 @@
         <v>4174427.2873556507</v>
       </c>
       <c r="AO34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1170447.5911349661</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>746994.56133121869</v>
       </c>
       <c r="AR34" s="3">
@@ -49189,11 +49959,11 @@
         <v>2</v>
       </c>
       <c r="BI34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>18.757919142959061</v>
       </c>
       <c r="BJ34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3951985.5015924638</v>
       </c>
       <c r="BL34">
@@ -49224,7 +49994,7 @@
         <v>14.54163044667553</v>
       </c>
       <c r="BS34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>96.360825492202778</v>
       </c>
       <c r="BT34">
@@ -49232,15 +50002,39 @@
         <v>2.4382889424410567E-2</v>
       </c>
       <c r="BU34">
+        <f t="shared" si="27"/>
+        <v>0.15090811408472413</v>
+      </c>
+      <c r="BV34">
         <f t="shared" si="28"/>
-        <v>0.15090811408472413</v>
-      </c>
-      <c r="BV34">
-        <f t="shared" si="29"/>
         <v>0.55791722800810117</v>
       </c>
+      <c r="BX34">
+        <f t="shared" si="32"/>
+        <v>3.6795758589741635E-3</v>
+      </c>
+      <c r="BY34">
+        <f t="shared" si="33"/>
+        <v>1.2774865482213116E-2</v>
+      </c>
+      <c r="BZ34">
+        <f t="shared" si="34"/>
+        <v>2.0703313565436404E-2</v>
+      </c>
+      <c r="CA34">
+        <f>childcare!Y33/'social care receipt'!BJ34*1000</f>
+        <v>1.3150318769493126E-3</v>
+      </c>
+      <c r="CB34">
+        <f t="shared" si="35"/>
+        <v>5.6265489173005721</v>
+      </c>
+      <c r="CC34">
+        <f t="shared" si="36"/>
+        <v>1.6206286942326193</v>
+      </c>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2051</v>
       </c>
@@ -49303,15 +50097,15 @@
         <v>2051</v>
       </c>
       <c r="S35">
-        <f t="shared" ref="S35:S53" si="36">$Q$3*H35/1000</f>
+        <f t="shared" ref="S35:S53" si="41">$Q$3*H35/1000</f>
         <v>313.00399069364551</v>
       </c>
       <c r="T35">
-        <f t="shared" ref="T35:T53" si="37">$Q$3*J35/1000</f>
+        <f t="shared" ref="T35:T53" si="42">$Q$3*J35/1000</f>
         <v>2103.9956531539187</v>
       </c>
       <c r="U35">
-        <f t="shared" ref="U35:U53" si="38">$Q$3*M35/1000</f>
+        <f t="shared" ref="U35:U53" si="43">$Q$3*M35/1000</f>
         <v>3413.7729508694724</v>
       </c>
       <c r="V35">
@@ -49365,11 +50159,11 @@
         <v>4175207.8459359342</v>
       </c>
       <c r="AO35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1212207.4751801281</v>
       </c>
       <c r="AP35">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>781729.41815383022</v>
       </c>
       <c r="AR35" s="3">
@@ -49424,42 +50218,42 @@
         <v>2</v>
       </c>
       <c r="BI35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>19.095285835780221</v>
       </c>
       <c r="BJ35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4021652.2096492597</v>
       </c>
       <c r="BL35">
         <v>2051</v>
       </c>
       <c r="BM35">
-        <f t="shared" ref="BM35:BM53" si="39">AY35*$BI35/10^9</f>
+        <f t="shared" ref="BM35:BM53" si="44">AY35*$BI35/10^9</f>
         <v>1.2524202484205218</v>
       </c>
       <c r="BN35">
-        <f t="shared" ref="BN35:BN53" si="40">AZ35*$BI35/10^9</f>
+        <f t="shared" ref="BN35:BN53" si="45">AZ35*$BI35/10^9</f>
         <v>53.562622966143813</v>
       </c>
       <c r="BO35">
-        <f t="shared" ref="BO35:BO53" si="41">BA35*$BI35/10^9</f>
+        <f t="shared" ref="BO35:BO53" si="46">BA35*$BI35/10^9</f>
         <v>12.976688735009214</v>
       </c>
       <c r="BP35">
-        <f t="shared" ref="BP35:BP53" si="42">BB35*$BI35/10^9</f>
+        <f t="shared" ref="BP35:BP53" si="47">BB35*$BI35/10^9</f>
         <v>5.8120717910455912</v>
       </c>
       <c r="BQ35">
-        <f t="shared" ref="BQ35:BQ53" si="43">BC35*$BI35/10^9</f>
+        <f t="shared" ref="BQ35:BQ53" si="48">BC35*$BI35/10^9</f>
         <v>8.462692408445573</v>
       </c>
       <c r="BR35">
-        <f t="shared" ref="BR35:BR53" si="44">BD35*$BI35/10^9</f>
+        <f t="shared" ref="BR35:BR53" si="49">BD35*$BI35/10^9</f>
         <v>15.545466038700662</v>
       </c>
       <c r="BS35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>97.611962187765386</v>
       </c>
       <c r="BT35">
@@ -49467,15 +50261,39 @@
         <v>2.4271607065763257E-2</v>
       </c>
       <c r="BU35">
+        <f t="shared" si="27"/>
+        <v>0.15925779679336391</v>
+      </c>
+      <c r="BV35">
         <f t="shared" si="28"/>
-        <v>0.15925779679336391</v>
-      </c>
-      <c r="BV35">
-        <f t="shared" si="29"/>
         <v>0.54873011222857393</v>
       </c>
+      <c r="BX35">
+        <f t="shared" si="32"/>
+        <v>3.8654426659277003E-3</v>
+      </c>
+      <c r="BY35">
+        <f t="shared" si="33"/>
+        <v>1.3420163621847579E-2</v>
+      </c>
+      <c r="BZ35">
+        <f t="shared" si="34"/>
+        <v>2.0406164399835554E-2</v>
+      </c>
+      <c r="CA35">
+        <f>childcare!Y34/'social care receipt'!BJ35*1000</f>
+        <v>1.1799848178447822E-3</v>
+      </c>
+      <c r="CB35">
+        <f t="shared" si="35"/>
+        <v>5.2791274282005443</v>
+      </c>
+      <c r="CC35">
+        <f t="shared" si="36"/>
+        <v>1.5205600300293656</v>
+      </c>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2052</v>
       </c>
@@ -49538,15 +50356,15 @@
         <v>2052</v>
       </c>
       <c r="S36">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>317.68734217534586</v>
       </c>
       <c r="T36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2100.0928602525014</v>
       </c>
       <c r="U36">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3481.6815473541287</v>
       </c>
       <c r="V36">
@@ -49600,11 +50418,11 @@
         <v>4202527.396245853</v>
       </c>
       <c r="AO36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1221964.4574336708</v>
       </c>
       <c r="AP36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>818415.67142715026</v>
       </c>
       <c r="AR36" s="3">
@@ -49659,42 +50477,42 @@
         <v>2</v>
       </c>
       <c r="BI36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>19.438720167797264</v>
       </c>
       <c r="BJ36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4092325.1709046694</v>
       </c>
       <c r="BL36">
         <v>2052</v>
       </c>
       <c r="BM36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.6153035871937158</v>
       </c>
       <c r="BN36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>54.818481364066315</v>
       </c>
       <c r="BO36">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>13.453687819951714</v>
       </c>
       <c r="BP36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>6.1937877360301181</v>
       </c>
       <c r="BQ36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>9.542024989458719</v>
       </c>
       <c r="BR36">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>15.506523539950368</v>
       </c>
       <c r="BS36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>101.12980903665095</v>
       </c>
       <c r="BT36">
@@ -49702,15 +50520,39 @@
         <v>2.4712065833784831E-2</v>
       </c>
       <c r="BU36">
+        <f t="shared" si="27"/>
+        <v>0.1533328668140822</v>
+      </c>
+      <c r="BV36">
         <f t="shared" si="28"/>
-        <v>0.1533328668140822</v>
-      </c>
-      <c r="BV36">
-        <f t="shared" si="29"/>
         <v>0.54206056439995132</v>
       </c>
+      <c r="BX36">
+        <f t="shared" si="32"/>
+        <v>3.7891718991925612E-3</v>
+      </c>
+      <c r="BY36">
+        <f t="shared" si="33"/>
+        <v>1.3155364410576992E-2</v>
+      </c>
+      <c r="BZ36">
+        <f t="shared" si="34"/>
+        <v>2.092289393459227E-2</v>
+      </c>
+      <c r="CA36">
+        <f>childcare!Y35/'social care receipt'!BJ36*1000</f>
+        <v>1.2024266570071951E-3</v>
+      </c>
+      <c r="CB36">
+        <f t="shared" si="35"/>
+        <v>5.5217589729963823</v>
+      </c>
+      <c r="CC36">
+        <f t="shared" si="36"/>
+        <v>1.5904457893823252</v>
+      </c>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2053</v>
       </c>
@@ -49773,15 +50615,15 @@
         <v>2053</v>
       </c>
       <c r="S37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>313.39426998378713</v>
       </c>
       <c r="T37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2107.5081667651939</v>
       </c>
       <c r="U37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3521.4900349485824</v>
       </c>
       <c r="V37">
@@ -49835,11 +50677,11 @@
         <v>4263801.2447981006</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1190351.8349321929</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>828562.93297083455</v>
       </c>
       <c r="AR37" s="3">
@@ -49894,42 +50736,42 @@
         <v>2</v>
       </c>
       <c r="BI37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>19.788331267285731</v>
       </c>
       <c r="BJ37">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4163723.0297397864</v>
       </c>
       <c r="BL37">
         <v>2053</v>
       </c>
       <c r="BM37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.4246307207317457</v>
       </c>
       <c r="BN37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>54.555153259442207</v>
       </c>
       <c r="BO37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>13.965312750579008</v>
       </c>
       <c r="BP37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>6.0341328532980096</v>
       </c>
       <c r="BQ37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>9.2918420009288258</v>
       </c>
       <c r="BR37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>15.372421649826183</v>
       </c>
       <c r="BS37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>100.64349323480597</v>
       </c>
       <c r="BT37">
@@ -49937,15 +50779,39 @@
         <v>2.4171514895671563E-2</v>
       </c>
       <c r="BU37">
+        <f t="shared" si="27"/>
+        <v>0.15274133633221182</v>
+      </c>
+      <c r="BV37">
         <f t="shared" si="28"/>
-        <v>0.15274133633221182</v>
-      </c>
-      <c r="BV37">
-        <f t="shared" si="29"/>
         <v>0.54206339134277148</v>
       </c>
+      <c r="BX37">
+        <f t="shared" si="32"/>
+        <v>3.6919894863388378E-3</v>
+      </c>
+      <c r="BY37">
+        <f t="shared" si="33"/>
+        <v>1.2817963498345403E-2</v>
+      </c>
+      <c r="BZ37">
+        <f t="shared" si="34"/>
+        <v>2.0479525409332726E-2</v>
+      </c>
+      <c r="CA37">
+        <f>childcare!Y36/'social care receipt'!BJ37*1000</f>
+        <v>1.208023093753782E-3</v>
+      </c>
+      <c r="CB37">
+        <f t="shared" si="35"/>
+        <v>5.547016177893088</v>
+      </c>
+      <c r="CC37">
+        <f t="shared" si="36"/>
+        <v>1.5977206840990232</v>
+      </c>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2054</v>
       </c>
@@ -50008,15 +50874,15 @@
         <v>2054</v>
       </c>
       <c r="S38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>310.27203566265359</v>
       </c>
       <c r="T38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2113.7526354074612</v>
       </c>
       <c r="U38">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3528.5150621711327</v>
       </c>
       <c r="V38">
@@ -50070,11 +50936,11 @@
         <v>4201356.5583754284</v>
       </c>
       <c r="AO38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1224306.1331745209</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>844954.66315678612</v>
       </c>
       <c r="AR38" s="3">
@@ -50129,42 +50995,42 @@
         <v>2</v>
       </c>
       <c r="BI38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>20.144230225225293</v>
       </c>
       <c r="BJ38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4235851.0867396984</v>
       </c>
       <c r="BL38">
         <v>2054</v>
       </c>
       <c r="BM38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.6572865612925829</v>
       </c>
       <c r="BN38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>55.141026935025891</v>
       </c>
       <c r="BO38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>13.667690860681549</v>
       </c>
       <c r="BP38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>6.3150527064779221</v>
       </c>
       <c r="BQ38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>9.6605784324807491</v>
       </c>
       <c r="BR38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>16.433550678189238</v>
       </c>
       <c r="BS38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>102.87518617414793</v>
       </c>
       <c r="BT38">
@@ -50172,15 +51038,39 @@
         <v>2.4286780641604225E-2</v>
       </c>
       <c r="BU38">
+        <f t="shared" si="27"/>
+        <v>0.15974260936325688</v>
+      </c>
+      <c r="BV38">
         <f t="shared" si="28"/>
-        <v>0.15974260936325688</v>
-      </c>
-      <c r="BV38">
-        <f t="shared" si="29"/>
         <v>0.53599929181836647</v>
       </c>
+      <c r="BX38">
+        <f t="shared" si="32"/>
+        <v>3.8796337127228932E-3</v>
+      </c>
+      <c r="BY38">
+        <f t="shared" si="33"/>
+        <v>1.3469432537833706E-2</v>
+      </c>
+      <c r="BZ38">
+        <f t="shared" si="34"/>
+        <v>2.0407146928881334E-2</v>
+      </c>
+      <c r="CA38">
+        <f>childcare!Y37/'social care receipt'!BJ38*1000</f>
+        <v>1.1689235837006519E-3</v>
+      </c>
+      <c r="CB38">
+        <f t="shared" si="35"/>
+        <v>5.2600705221108939</v>
+      </c>
+      <c r="CC38">
+        <f t="shared" si="36"/>
+        <v>1.5150710225958355</v>
+      </c>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2055</v>
       </c>
@@ -50243,15 +51133,15 @@
         <v>2055</v>
       </c>
       <c r="S39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>330.9568380401638</v>
       </c>
       <c r="T39">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2184.3931869231096</v>
       </c>
       <c r="U39">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3528.5150621711327</v>
       </c>
       <c r="V39">
@@ -50305,11 +51195,11 @@
         <v>4258337.3347361172</v>
       </c>
       <c r="AO39">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1256309.0349661405</v>
       </c>
       <c r="AP39">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>845735.22173706943</v>
       </c>
       <c r="AR39" s="3">
@@ -50364,42 +51254,42 @@
         <v>2</v>
       </c>
       <c r="BI39">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>20.506530130599561</v>
       </c>
       <c r="BJ39">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4308505.4178430345</v>
       </c>
       <c r="BL39">
         <v>2055</v>
       </c>
       <c r="BM39">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.7700025296267683</v>
       </c>
       <c r="BN39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>57.24350874134204</v>
       </c>
       <c r="BO39">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14.258784750407838</v>
       </c>
       <c r="BP39">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>6.6677283865110795</v>
       </c>
       <c r="BQ39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>9.7703453828101399</v>
       </c>
       <c r="BR39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>16.827364431416942</v>
       </c>
       <c r="BS39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>106.53773422211481</v>
       </c>
       <c r="BT39">
@@ -50407,15 +51297,39 @@
         <v>2.4727306546001918E-2</v>
       </c>
       <c r="BU39">
+        <f t="shared" si="27"/>
+        <v>0.157947459219796</v>
+      </c>
+      <c r="BV39">
         <f t="shared" si="28"/>
-        <v>0.157947459219796</v>
-      </c>
-      <c r="BV39">
-        <f t="shared" si="29"/>
         <v>0.53730736024475723</v>
       </c>
+      <c r="BX39">
+        <f t="shared" si="32"/>
+        <v>3.905615242290033E-3</v>
+      </c>
+      <c r="BY39">
+        <f t="shared" si="33"/>
+        <v>1.3559636017246381E-2</v>
+      </c>
+      <c r="BZ39">
+        <f t="shared" si="34"/>
+        <v>2.0821691303711889E-2</v>
+      </c>
+      <c r="CA39">
+        <f>childcare!Y38/'social care receipt'!BJ39*1000</f>
+        <v>1.1829924744122132E-3</v>
+      </c>
+      <c r="CB39">
+        <f t="shared" si="35"/>
+        <v>5.3312192860818568</v>
+      </c>
+      <c r="CC39">
+        <f t="shared" si="36"/>
+        <v>1.5355641757071476</v>
+      </c>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2056</v>
       </c>
@@ -50478,15 +51392,15 @@
         <v>2056</v>
       </c>
       <c r="S40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>336.03046881200595</v>
       </c>
       <c r="T40">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2196.1015656273603</v>
       </c>
       <c r="U40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3552.7123781599184</v>
       </c>
       <c r="V40">
@@ -50540,11 +51454,11 @@
         <v>4252483.1453839913</v>
       </c>
       <c r="AO40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1276603.5580535091</v>
       </c>
       <c r="AP40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>869151.97914557159</v>
       </c>
       <c r="AR40" s="3">
@@ -50599,42 +51513,42 @@
         <v>2</v>
       </c>
       <c r="BI40">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>20.875346106330781</v>
       </c>
       <c r="BJ40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4381720.3404369475</v>
       </c>
       <c r="BL40">
         <v>2056</v>
       </c>
       <c r="BM40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>2.271975865886144</v>
       </c>
       <c r="BN40">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>57.277684848972491</v>
       </c>
       <c r="BO40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14.818102235945425</v>
       </c>
       <c r="BP40">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>7.0306312201453594</v>
       </c>
       <c r="BQ40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>9.4893962738298772</v>
       </c>
       <c r="BR40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>18.231212401430781</v>
       </c>
       <c r="BS40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>109.11900284621008</v>
       </c>
       <c r="BT40">
@@ -50642,15 +51556,39 @@
         <v>2.4903233061042109E-2</v>
       </c>
       <c r="BU40">
+        <f t="shared" si="27"/>
+        <v>0.16707642047577589</v>
+      </c>
+      <c r="BV40">
         <f t="shared" si="28"/>
-        <v>0.16707642047577589</v>
-      </c>
-      <c r="BV40">
-        <f t="shared" si="29"/>
         <v>0.52491026636028193</v>
       </c>
+      <c r="BX40">
+        <f t="shared" si="32"/>
+        <v>4.1607430381129145E-3</v>
+      </c>
+      <c r="BY40">
+        <f t="shared" si="33"/>
+        <v>1.4445396604152585E-2</v>
+      </c>
+      <c r="BZ40">
+        <f t="shared" si="34"/>
+        <v>2.0742490022929196E-2</v>
+      </c>
+      <c r="CA40">
+        <f>childcare!Y39/'social care receipt'!BJ40*1000</f>
+        <v>1.078905939670453E-3</v>
+      </c>
+      <c r="CB40">
+        <f t="shared" si="35"/>
+        <v>4.9852850399376871</v>
+      </c>
+      <c r="CC40">
+        <f t="shared" si="36"/>
+        <v>1.4359238857427008</v>
+      </c>
     </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2057</v>
       </c>
@@ -50713,15 +51651,15 @@
         <v>2057</v>
       </c>
       <c r="S41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>329.39572087959692</v>
       </c>
       <c r="T41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2253.0823419880489</v>
       </c>
       <c r="U41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3539.4428822951004</v>
       </c>
       <c r="V41">
@@ -50775,11 +51713,11 @@
         <v>4256385.9382854085</v>
       </c>
       <c r="AO41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1307435.6219747036</v>
       </c>
       <c r="AP41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>872664.49275684694</v>
       </c>
       <c r="AR41" s="3">
@@ -50834,42 +51772,42 @@
         <v>2</v>
       </c>
       <c r="BI41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>21.250795345860816</v>
       </c>
       <c r="BJ41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4455558.7669670042</v>
       </c>
       <c r="BL41">
         <v>2057</v>
       </c>
       <c r="BM41">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>2.3000004772557712</v>
       </c>
       <c r="BN41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>62.217843816959274</v>
       </c>
       <c r="BO41">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14.767730129762251</v>
       </c>
       <c r="BP41">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>6.9839013545700865</v>
       </c>
       <c r="BQ41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>9.8584793306359124</v>
       </c>
       <c r="BR41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>18.190388382686624</v>
       </c>
       <c r="BS41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>114.31834349186992</v>
       </c>
       <c r="BT41">
@@ -50877,15 +51815,39 @@
         <v>2.565746508370911E-2</v>
       </c>
       <c r="BU41">
+        <f t="shared" si="27"/>
+        <v>0.15912046857099785</v>
+      </c>
+      <c r="BV41">
         <f t="shared" si="28"/>
-        <v>0.15912046857099785</v>
-      </c>
-      <c r="BV41">
-        <f t="shared" si="29"/>
         <v>0.54425074678749241</v>
       </c>
+      <c r="BX41">
+        <f t="shared" si="32"/>
+        <v>4.0826278664638097E-3</v>
+      </c>
+      <c r="BY41">
+        <f t="shared" si="33"/>
+        <v>1.4174193930751115E-2</v>
+      </c>
+      <c r="BZ41">
+        <f t="shared" si="34"/>
+        <v>2.1574837217245298E-2</v>
+      </c>
+      <c r="CA41">
+        <f>childcare!Y40/'social care receipt'!BJ41*1000</f>
+        <v>1.1063681354692837E-3</v>
+      </c>
+      <c r="CB41">
+        <f t="shared" si="35"/>
+        <v>5.284546601582</v>
+      </c>
+      <c r="CC41">
+        <f t="shared" si="36"/>
+        <v>1.5221209278390344</v>
+      </c>
     </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2058</v>
       </c>
@@ -50948,15 +51910,15 @@
         <v>2058</v>
       </c>
       <c r="S42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>326.27348655846339</v>
       </c>
       <c r="T42">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2260.4976485007414</v>
       </c>
       <c r="U42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3591.350027883947</v>
       </c>
       <c r="V42">
@@ -51010,11 +51972,11 @@
         <v>4271216.5513107926</v>
       </c>
       <c r="AO42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1288702.2160479019</v>
       </c>
       <c r="AP42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>922620.24189498485</v>
       </c>
       <c r="AR42" s="3">
@@ -51069,42 +52031,42 @@
         <v>2</v>
       </c>
       <c r="BI42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>21.632997150390043</v>
       </c>
       <c r="BJ42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4529806.1088310275</v>
       </c>
       <c r="BL42">
         <v>2058</v>
       </c>
       <c r="BM42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.9068871167702366</v>
       </c>
       <c r="BN42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>59.790502199647229</v>
       </c>
       <c r="BO42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>15.549667529882559</v>
       </c>
       <c r="BP42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>7.0922712324294812</v>
       </c>
       <c r="BQ42">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>9.7378634077957944</v>
       </c>
       <c r="BR42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>19.295777582855955</v>
       </c>
       <c r="BS42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>113.37296906938127</v>
       </c>
       <c r="BT42">
@@ -51112,15 +52074,39 @@
         <v>2.5028216737214514E-2</v>
       </c>
       <c r="BU42">
+        <f t="shared" si="27"/>
+        <v>0.17019733840654247</v>
+      </c>
+      <c r="BV42">
         <f t="shared" si="28"/>
-        <v>0.17019733840654247</v>
-      </c>
-      <c r="BV42">
-        <f t="shared" si="29"/>
         <v>0.52737881604791537</v>
       </c>
+      <c r="BX42">
+        <f t="shared" si="32"/>
+        <v>4.2597358737359887E-3</v>
+      </c>
+      <c r="BY42">
+        <f t="shared" si="33"/>
+        <v>1.478908299825241E-2</v>
+      </c>
+      <c r="BZ42">
+        <f t="shared" si="34"/>
+        <v>2.0768480863478524E-2</v>
+      </c>
+      <c r="CA42">
+        <f>childcare!Y41/'social care receipt'!BJ42*1000</f>
+        <v>1.2028702708427035E-3</v>
+      </c>
+      <c r="CB42">
+        <f t="shared" si="35"/>
+        <v>4.8755325398294209</v>
+      </c>
+      <c r="CC42">
+        <f t="shared" si="36"/>
+        <v>1.4043116037642553</v>
+      </c>
     </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2059</v>
       </c>
@@ -51183,15 +52169,15 @@
         <v>2059</v>
       </c>
       <c r="S43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>327.44432442888842</v>
       </c>
       <c r="T43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2296.0130639036365</v>
       </c>
       <c r="U43">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3546.8581888077929</v>
       </c>
       <c r="V43">
@@ -51245,11 +52231,11 @@
         <v>4264972.0826685261</v>
       </c>
       <c r="AO43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1303532.8290732866</v>
       </c>
       <c r="AP43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>901935.43951747462</v>
       </c>
       <c r="AR43" s="3">
@@ -51304,42 +52290,42 @@
         <v>2</v>
       </c>
       <c r="BI43">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>22.022072966786027</v>
       </c>
       <c r="BJ43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4604845.5449518505</v>
       </c>
       <c r="BL43">
         <v>2059</v>
       </c>
       <c r="BM43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.7088688263852685</v>
       </c>
       <c r="BN43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>62.273208245216118</v>
       </c>
       <c r="BO43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16.309516467110424</v>
       </c>
       <c r="BP43">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>7.0153184418095504</v>
       </c>
       <c r="BQ43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>10.797896064593242</v>
       </c>
       <c r="BR43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>19.629865598525026</v>
       </c>
       <c r="BS43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>117.73467364363964</v>
       </c>
       <c r="BT43">
@@ -51347,15 +52333,39 @@
         <v>2.5567561928913882E-2</v>
       </c>
       <c r="BU43">
+        <f t="shared" si="27"/>
+        <v>0.16672968965744855</v>
+      </c>
+      <c r="BV43">
         <f t="shared" si="28"/>
-        <v>0.16672968965744855</v>
-      </c>
-      <c r="BV43">
-        <f t="shared" si="29"/>
         <v>0.52892836339535132</v>
       </c>
+      <c r="BX43">
+        <f t="shared" si="32"/>
+        <v>4.2628716657054089E-3</v>
+      </c>
+      <c r="BY43">
+        <f t="shared" si="33"/>
+        <v>1.4799969937977228E-2</v>
+      </c>
+      <c r="BZ43">
+        <f t="shared" si="34"/>
+        <v>2.1304690263208474E-2</v>
+      </c>
+      <c r="CA43">
+        <f>childcare!Y42/'social care receipt'!BJ43*1000</f>
+        <v>1.0492787083214424E-3</v>
+      </c>
+      <c r="CB43">
+        <f t="shared" si="35"/>
+        <v>4.9977320299373895</v>
+      </c>
+      <c r="CC43">
+        <f t="shared" si="36"/>
+        <v>1.4395090228217229</v>
+      </c>
     </row>
-    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2060</v>
       </c>
@@ -51418,15 +52428,15 @@
         <v>2060</v>
       </c>
       <c r="S44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>329.0054415894553</v>
       </c>
       <c r="T44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2321.7714970529887</v>
       </c>
       <c r="U44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3540.6137201655256</v>
       </c>
       <c r="V44">
@@ -51480,11 +52490,11 @@
         <v>4280973.5335643357</v>
       </c>
       <c r="AO44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1306264.7841042785</v>
       </c>
       <c r="AP44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>918327.16970342619</v>
       </c>
       <c r="AR44" s="3">
@@ -51539,42 +52549,42 @@
         <v>2</v>
       </c>
       <c r="BI44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>22.418146426173955</v>
       </c>
       <c r="BJ44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4680158.8792980826</v>
       </c>
       <c r="BL44">
         <v>2060</v>
       </c>
       <c r="BM44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.9759404693423179</v>
       </c>
       <c r="BN44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>63.012443080422713</v>
       </c>
       <c r="BO44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16.623485731450522</v>
       </c>
       <c r="BP44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>7.1173925189790586</v>
       </c>
       <c r="BQ44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>11.366326357941448</v>
       </c>
       <c r="BR44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>20.170959050967646</v>
       </c>
       <c r="BS44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>120.26654720910369</v>
       </c>
       <c r="BT44">
@@ -51582,15 +52592,39 @@
         <v>2.569710779287496E-2</v>
       </c>
       <c r="BU44">
+        <f t="shared" si="27"/>
+        <v>0.16771878397653697</v>
+      </c>
+      <c r="BV44">
         <f t="shared" si="28"/>
-        <v>0.16771878397653697</v>
-      </c>
-      <c r="BV44">
-        <f t="shared" si="29"/>
         <v>0.52393990301280491</v>
       </c>
+      <c r="BX44">
+        <f t="shared" si="32"/>
+        <v>4.3098876707349789E-3</v>
+      </c>
+      <c r="BY44">
+        <f t="shared" si="33"/>
+        <v>1.4963201561072852E-2</v>
+      </c>
+      <c r="BZ44">
+        <f t="shared" si="34"/>
+        <v>2.1387220122139981E-2</v>
+      </c>
+      <c r="CA44">
+        <f>childcare!Y43/'social care receipt'!BJ44*1000</f>
+        <v>9.8068580769833207E-4</v>
+      </c>
+      <c r="CB44">
+        <f t="shared" si="35"/>
+        <v>4.9623613783170244</v>
+      </c>
+      <c r="CC44">
+        <f t="shared" si="36"/>
+        <v>1.429321127223159</v>
+      </c>
     </row>
-    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2061</v>
       </c>
@@ -51653,15 +52687,15 @@
         <v>2061</v>
       </c>
       <c r="S45">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>318.85818004577101</v>
       </c>
       <c r="T45">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2340.5049029797901</v>
       </c>
       <c r="U45">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3537.8817651345339</v>
       </c>
       <c r="V45">
@@ -51715,11 +52749,11 @@
         <v>4267313.7584093763</v>
       </c>
       <c r="AO45">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1290653.6124986105</v>
       </c>
       <c r="AP45">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>935109.17917951941</v>
       </c>
       <c r="AR45" s="3">
@@ -51774,42 +52808,42 @@
         <v>2</v>
       </c>
       <c r="BI45">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>22.821343383221169</v>
       </c>
       <c r="BJ45">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4757257.1395482523</v>
       </c>
       <c r="BL45">
         <v>2061</v>
       </c>
       <c r="BM45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.6552020875816635</v>
       </c>
       <c r="BN45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>64.326048384751388</v>
       </c>
       <c r="BO45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16.361371493946873</v>
       </c>
       <c r="BP45">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>7.0261232735644077</v>
       </c>
       <c r="BQ45">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>10.953724189674581</v>
       </c>
       <c r="BR45">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>20.107307079927462</v>
       </c>
       <c r="BS45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>120.42977650944638</v>
       </c>
       <c r="BT45">
@@ -51817,15 +52851,39 @@
         <v>2.5314960486008616E-2</v>
       </c>
       <c r="BU45">
+        <f t="shared" si="27"/>
+        <v>0.16696291949317257</v>
+      </c>
+      <c r="BV45">
         <f t="shared" si="28"/>
-        <v>0.16696291949317257</v>
-      </c>
-      <c r="BV45">
-        <f t="shared" si="29"/>
         <v>0.53413740562497614</v>
       </c>
+      <c r="BX45">
+        <f t="shared" si="32"/>
+        <v>4.2266597095983018E-3</v>
+      </c>
+      <c r="BY45">
+        <f t="shared" si="33"/>
+        <v>1.4674248146703962E-2</v>
+      </c>
+      <c r="BZ45">
+        <f t="shared" si="34"/>
+        <v>2.1088300776410315E-2</v>
+      </c>
+      <c r="CA45">
+        <f>childcare!Y44/'social care receipt'!BJ45*1000</f>
+        <v>1.0558673169284996E-3</v>
+      </c>
+      <c r="CB45">
+        <f t="shared" si="35"/>
+        <v>4.9893538220077174</v>
+      </c>
+      <c r="CC45">
+        <f t="shared" si="36"/>
+        <v>1.4370958270285921</v>
+      </c>
     </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2062</v>
       </c>
@@ -51888,15 +52946,15 @@
         <v>2062</v>
       </c>
       <c r="S46">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>320.0290179161961</v>
       </c>
       <c r="T46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2392.021769278495</v>
       </c>
       <c r="U46">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3565.201315444453</v>
       </c>
       <c r="V46">
@@ -51950,11 +53008,11 @@
         <v>4325075.0933503481</v>
       </c>
       <c r="AO46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1310948.1355859789</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>943305.04427249508</v>
       </c>
       <c r="AR46" s="3">
@@ -52009,42 +53067,42 @@
         <v>2</v>
       </c>
       <c r="BI46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>23.231791956128216</v>
       </c>
       <c r="BJ46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4834783.1660894779</v>
       </c>
       <c r="BL46">
         <v>2062</v>
       </c>
       <c r="BM46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.3822288637342754</v>
       </c>
       <c r="BN46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>65.840146316560606</v>
       </c>
       <c r="BO46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16.593693632000338</v>
       </c>
       <c r="BP46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>7.5778095269681414</v>
       </c>
       <c r="BQ46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>10.593239714157086</v>
       </c>
       <c r="BR46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>20.606966421995253</v>
       </c>
       <c r="BS46">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>122.59408447541568</v>
       </c>
       <c r="BT46">
@@ -52052,15 +53110,39 @@
         <v>2.5356687210974463E-2</v>
       </c>
       <c r="BU46">
+        <f t="shared" si="27"/>
+        <v>0.16809103400195183</v>
+      </c>
+      <c r="BV46">
         <f t="shared" si="28"/>
-        <v>0.16809103400195183</v>
-      </c>
-      <c r="BV46">
-        <f t="shared" si="29"/>
         <v>0.53705810193283687</v>
       </c>
+      <c r="BX46">
+        <f t="shared" si="32"/>
+        <v>4.2622317721567656E-3</v>
+      </c>
+      <c r="BY46">
+        <f t="shared" si="33"/>
+        <v>1.4797748335727362E-2</v>
+      </c>
+      <c r="BZ46">
+        <f t="shared" si="34"/>
+        <v>2.1094455438817696E-2</v>
+      </c>
+      <c r="CA46">
+        <f>childcare!Y45/'social care receipt'!BJ46*1000</f>
+        <v>1.0231495251190644E-3</v>
+      </c>
+      <c r="CB46">
+        <f t="shared" si="35"/>
+        <v>4.9491572881179859</v>
+      </c>
+      <c r="CC46">
+        <f t="shared" si="36"/>
+        <v>1.4255179207155253</v>
+      </c>
     </row>
-    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2063</v>
       </c>
@@ -52123,15 +53205,15 @@
         <v>2063</v>
       </c>
       <c r="S47">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>320.41929720633777</v>
       </c>
       <c r="T47">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2403.7301479827465</v>
       </c>
       <c r="U47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3556.2248917711941</v>
       </c>
       <c r="V47">
@@ -52185,11 +53267,11 @@
         <v>4311805.5974855302</v>
       </c>
       <c r="AO47">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1345682.9924085904</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>933548.06201895257</v>
       </c>
       <c r="AR47" s="3">
@@ -52244,42 +53326,42 @@
         <v>2</v>
       </c>
       <c r="BI47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>23.649622567339165</v>
       </c>
       <c r="BJ47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4912545.5236183833</v>
       </c>
       <c r="BL47">
         <v>2063</v>
       </c>
       <c r="BM47">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.1462033135095773</v>
       </c>
       <c r="BN47">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>68.936248070392168</v>
       </c>
       <c r="BO47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>17.066252673045774</v>
       </c>
       <c r="BP47">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>8.0463472608372317</v>
       </c>
       <c r="BQ47">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>11.466151797447598</v>
       </c>
       <c r="BR47">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>20.777645555529137</v>
       </c>
       <c r="BS47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>127.43884867076147</v>
       </c>
       <c r="BT47">
@@ -52287,15 +53369,39 @@
         <v>2.5941509968317841E-2</v>
       </c>
       <c r="BU47">
+        <f t="shared" si="27"/>
+        <v>0.16304012294718878</v>
+      </c>
+      <c r="BV47">
         <f t="shared" si="28"/>
-        <v>0.16304012294718878</v>
-      </c>
-      <c r="BV47">
-        <f t="shared" si="29"/>
         <v>0.5409358981929373</v>
       </c>
+      <c r="BX47">
+        <f t="shared" si="32"/>
+        <v>4.2295069746702638E-3</v>
+      </c>
+      <c r="BY47">
+        <f t="shared" si="33"/>
+        <v>1.4684133369805915E-2</v>
+      </c>
+      <c r="BZ47">
+        <f t="shared" si="34"/>
+        <v>2.1712002993647578E-2</v>
+      </c>
+      <c r="CA47">
+        <f>childcare!Y46/'social care receipt'!BJ47*1000</f>
+        <v>9.5843444046799799E-4</v>
+      </c>
+      <c r="CB47">
+        <f t="shared" si="35"/>
+        <v>5.1334595553753086</v>
+      </c>
+      <c r="CC47">
+        <f t="shared" si="36"/>
+        <v>1.4786029550979591</v>
+      </c>
     </row>
-    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2064</v>
       </c>
@@ -52358,15 +53464,15 @@
         <v>2064</v>
       </c>
       <c r="S48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>324.71236939789651</v>
       </c>
       <c r="T48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2432.2205361630904</v>
       </c>
       <c r="U48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3546.8581888077929</v>
       </c>
       <c r="V48">
@@ -52420,11 +53526,11 @@
         <v>4314537.5525165219</v>
       </c>
       <c r="AO48">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1332803.7758339143</v>
       </c>
       <c r="AP48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>951891.18865561252</v>
       </c>
       <c r="AR48" s="3">
@@ -52479,42 +53585,42 @@
         <v>2</v>
       </c>
       <c r="BI48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>24.074967984984099</v>
       </c>
       <c r="BJ48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4991002.0390187232</v>
       </c>
       <c r="BL48">
         <v>2064</v>
       </c>
       <c r="BM48">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.7011396102841798</v>
       </c>
       <c r="BN48">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>73.723594011251379</v>
       </c>
       <c r="BO48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16.715777480498854</v>
       </c>
       <c r="BP48">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>7.929357698635811</v>
       </c>
       <c r="BQ48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>11.576304000726951</v>
       </c>
       <c r="BR48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>21.438666930973628</v>
       </c>
       <c r="BS48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>133.0848397323708</v>
       </c>
       <c r="BT48">
@@ -52522,15 +53628,39 @@
         <v>2.666495398958733E-2</v>
       </c>
       <c r="BU48">
+        <f t="shared" si="27"/>
+        <v>0.16109022616014024</v>
+      </c>
+      <c r="BV48">
         <f t="shared" si="28"/>
-        <v>0.16109022616014024</v>
-      </c>
-      <c r="BV48">
-        <f t="shared" si="29"/>
         <v>0.55395937027468412</v>
       </c>
+      <c r="BX48">
+        <f t="shared" si="32"/>
+        <v>4.2954634687323561E-3</v>
+      </c>
+      <c r="BY48">
+        <f t="shared" si="33"/>
+        <v>1.4913123169613039E-2</v>
+      </c>
+      <c r="BZ48">
+        <f t="shared" si="34"/>
+        <v>2.2369490520854973E-2</v>
+      </c>
+      <c r="CA48">
+        <f>childcare!Y47/'social care receipt'!BJ48*1000</f>
+        <v>9.8830902611646721E-4</v>
+      </c>
+      <c r="CB48">
+        <f t="shared" si="35"/>
+        <v>5.207701260571187</v>
+      </c>
+      <c r="CC48">
+        <f t="shared" si="36"/>
+        <v>1.4999869756614777</v>
+      </c>
     </row>
-    <row r="49" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2065</v>
       </c>
@@ -52593,15 +53723,15 @@
         <v>2065</v>
       </c>
       <c r="S49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>330.9568380401638</v>
       </c>
       <c r="T49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2437.6844462250742</v>
       </c>
       <c r="U49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3576.5194148585624</v>
       </c>
       <c r="V49">
@@ -52655,11 +53785,11 @@
         <v>4321172.3004489308</v>
       </c>
       <c r="AO49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1357781.6504029832</v>
       </c>
       <c r="AP49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>961257.89161901339</v>
       </c>
       <c r="AR49" s="3">
@@ -52714,42 +53844,42 @@
         <v>2</v>
       </c>
       <c r="BI49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>24.507963365066971</v>
       </c>
       <c r="BJ49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5070904.3245103518</v>
       </c>
       <c r="BL49">
         <v>2065</v>
       </c>
       <c r="BM49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.9356177312303173</v>
       </c>
       <c r="BN49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>70.000898350638636</v>
       </c>
       <c r="BO49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>17.110687989741336</v>
       </c>
       <c r="BP49">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>7.684033808826281</v>
       </c>
       <c r="BQ49">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>12.711429215201479</v>
       </c>
       <c r="BR49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>22.398903982316028</v>
       </c>
       <c r="BS49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>131.84157107795409</v>
       </c>
       <c r="BT49">
@@ -52757,15 +53887,39 @@
         <v>2.5999617157179307E-2</v>
       </c>
       <c r="BU49">
+        <f t="shared" si="27"/>
+        <v>0.16989257484706555</v>
+      </c>
+      <c r="BV49">
         <f t="shared" si="28"/>
-        <v>0.16989257484706555</v>
-      </c>
-      <c r="BV49">
-        <f t="shared" si="29"/>
         <v>0.53094708883019259</v>
       </c>
+      <c r="BX49">
+        <f t="shared" si="32"/>
+        <v>4.4171419038711354E-3</v>
+      </c>
+      <c r="BY49">
+        <f t="shared" si="33"/>
+        <v>1.533557013104556E-2</v>
+      </c>
+      <c r="BZ49">
+        <f t="shared" si="34"/>
+        <v>2.158247525330817E-2</v>
+      </c>
+      <c r="CA49">
+        <f>childcare!Y48/'social care receipt'!BJ49*1000</f>
+        <v>9.9448882470871145E-4</v>
+      </c>
+      <c r="CB49">
+        <f t="shared" si="35"/>
+        <v>4.886072424884861</v>
+      </c>
+      <c r="CC49">
+        <f t="shared" si="36"/>
+        <v>1.4073474327254571</v>
+      </c>
     </row>
-    <row r="50" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2066</v>
       </c>
@@ -52828,15 +53982,15 @@
         <v>2066</v>
       </c>
       <c r="S50">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>334.46935165143907</v>
       </c>
       <c r="T50">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2445.8803113180502</v>
       </c>
       <c r="U50">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3638.5738219910932</v>
       </c>
       <c r="V50">
@@ -52890,11 +54044,11 @@
         <v>4410155.9786012387</v>
       </c>
       <c r="AO50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1357001.0918226999</v>
       </c>
       <c r="AP50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>953062.02652603772</v>
       </c>
       <c r="AR50" s="3">
@@ -52949,42 +54103,42 @@
         <v>2</v>
       </c>
       <c r="BI50">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>24.948746294412214</v>
       </c>
       <c r="BJ50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5152450.5463678613</v>
       </c>
       <c r="BL50">
         <v>2066</v>
       </c>
       <c r="BM50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>2.1756181287862364</v>
       </c>
       <c r="BN50">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>74.017505057373626</v>
       </c>
       <c r="BO50">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>17.542637742931685</v>
       </c>
       <c r="BP50">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>8.55629015001937</v>
       </c>
       <c r="BQ50">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>12.828427694206423</v>
       </c>
       <c r="BR50">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>22.125712127681485</v>
       </c>
       <c r="BS50">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>137.24619090099884</v>
       </c>
       <c r="BT50">
@@ -52992,15 +54146,39 @@
         <v>2.6637070975430974E-2</v>
       </c>
       <c r="BU50">
+        <f t="shared" si="27"/>
+        <v>0.16121184844861483</v>
+      </c>
+      <c r="BV50">
         <f t="shared" si="28"/>
-        <v>0.16121184844861483</v>
-      </c>
-      <c r="BV50">
-        <f t="shared" si="29"/>
         <v>0.53930462165442106</v>
       </c>
+      <c r="BX50">
+        <f t="shared" si="32"/>
+        <v>4.2942114492061749E-3</v>
+      </c>
+      <c r="BY50">
+        <f t="shared" si="33"/>
+        <v>1.4908776369427074E-2</v>
+      </c>
+      <c r="BZ50">
+        <f t="shared" si="34"/>
+        <v>2.2342859526224799E-2</v>
+      </c>
+      <c r="CA50">
+        <f>childcare!Y49/'social care receipt'!BJ50*1000</f>
+        <v>9.8270800983120323E-4</v>
+      </c>
+      <c r="CB50">
+        <f t="shared" si="35"/>
+        <v>5.2030180140186353</v>
+      </c>
+      <c r="CC50">
+        <f t="shared" si="36"/>
+        <v>1.4986380486625683</v>
+      </c>
     </row>
-    <row r="51" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2067</v>
       </c>
@@ -53063,15 +54241,15 @@
         <v>2067</v>
       </c>
       <c r="S51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>345.39717177540678</v>
       </c>
       <c r="T51">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2434.9524911940825</v>
       </c>
       <c r="U51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3700.2379498334822</v>
       </c>
       <c r="V51">
@@ -53125,11 +54303,11 @@
         <v>4461282.5656098025</v>
       </c>
       <c r="AO51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1374173.3805889348</v>
       </c>
       <c r="AP51">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>952281.4679457543</v>
       </c>
       <c r="AR51" s="3">
@@ -53184,42 +54362,42 @@
         <v>2</v>
       </c>
       <c r="BI51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>25.397456834383771</v>
       </c>
       <c r="BJ51">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5235750.704863186</v>
       </c>
       <c r="BL51">
         <v>2067</v>
       </c>
       <c r="BM51">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>2.7974925414399094</v>
       </c>
       <c r="BN51">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>75.895637604292602</v>
       </c>
       <c r="BO51">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>18.802747717632666</v>
       </c>
       <c r="BP51">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>8.4076802967148634</v>
       </c>
       <c r="BQ51">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>12.59614951746679</v>
       </c>
       <c r="BR51">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>22.713601268859847</v>
       </c>
       <c r="BS51">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>141.21330894640667</v>
       </c>
       <c r="BT51">
@@ -53227,15 +54405,39 @@
         <v>2.6970976447606987E-2</v>
       </c>
       <c r="BU51">
+        <f t="shared" si="27"/>
+        <v>0.16084603808469725</v>
+      </c>
+      <c r="BV51">
         <f t="shared" si="28"/>
-        <v>0.16084603808469725</v>
-      </c>
-      <c r="BV51">
-        <f t="shared" si="29"/>
         <v>0.53745385736337747</v>
       </c>
+      <c r="BX51">
+        <f t="shared" si="32"/>
+        <v>4.3381747048732667E-3</v>
+      </c>
+      <c r="BY51">
+        <f t="shared" si="33"/>
+        <v>1.5061409362693805E-2</v>
+      </c>
+      <c r="BZ51">
+        <f t="shared" si="34"/>
+        <v>2.2632801742733723E-2</v>
+      </c>
+      <c r="CA51">
+        <f>childcare!Y50/'social care receipt'!BJ51*1000</f>
+        <v>9.3015269340642717E-4</v>
+      </c>
+      <c r="CB51">
+        <f t="shared" si="35"/>
+        <v>5.2171254692230997</v>
+      </c>
+      <c r="CC51">
+        <f t="shared" si="36"/>
+        <v>1.502701453609899</v>
+      </c>
     </row>
-    <row r="52" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2068</v>
       </c>
@@ -53298,15 +54500,15 @@
         <v>2068</v>
       </c>
       <c r="S52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>332.9082344908723</v>
       </c>
       <c r="T52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2419.3413195884145</v>
       </c>
       <c r="U52">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3774.000735670264</v>
       </c>
       <c r="V52">
@@ -53360,11 +54562,11 @@
         <v>4483918.764438021</v>
       </c>
       <c r="AO52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1390174.8314847446</v>
       </c>
       <c r="AP52">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>975698.22535425646</v>
       </c>
       <c r="AR52" s="3">
@@ -53419,42 +54621,42 @@
         <v>2</v>
       </c>
       <c r="BI52">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>25.854237565390402</v>
       </c>
       <c r="BJ52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5321726.3564597163</v>
       </c>
       <c r="BL52">
         <v>2068</v>
       </c>
       <c r="BM52">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.9076370426987395</v>
       </c>
       <c r="BN52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>79.009474634164889</v>
       </c>
       <c r="BO52">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>18.49589154531219</v>
       </c>
       <c r="BP52">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>8.8264625177704552</v>
       </c>
       <c r="BQ52">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>13.195558664213578</v>
       </c>
       <c r="BR52">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>23.825426064151213</v>
       </c>
       <c r="BS52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>145.26045046831106</v>
       </c>
       <c r="BT52">
@@ -53462,15 +54664,39 @@
         <v>2.7295738401127735E-2</v>
       </c>
       <c r="BU52">
+        <f t="shared" si="27"/>
+        <v>0.16401867120292862</v>
+      </c>
+      <c r="BV52">
         <f t="shared" si="28"/>
-        <v>0.16401867120292862</v>
-      </c>
-      <c r="BV52">
-        <f t="shared" si="29"/>
         <v>0.54391594119006959</v>
       </c>
+      <c r="BX52">
+        <f t="shared" si="32"/>
+        <v>4.4770107420557224E-3</v>
+      </c>
+      <c r="BY52">
+        <f t="shared" si="33"/>
+        <v>1.5543424618545573E-2</v>
+      </c>
+      <c r="BZ52">
+        <f t="shared" si="34"/>
+        <v>2.2818727659072013E-2</v>
+      </c>
+      <c r="CA52">
+        <f>childcare!Y51/'social care receipt'!BJ52*1000</f>
+        <v>9.4826661682076722E-4</v>
+      </c>
+      <c r="CB52">
+        <f t="shared" si="35"/>
+        <v>5.0968668546446843</v>
+      </c>
+      <c r="CC52">
+        <f t="shared" si="36"/>
+        <v>1.4680630696948176</v>
+      </c>
     </row>
-    <row r="53" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2069</v>
       </c>
@@ -53533,15 +54759,15 @@
         <v>2069</v>
       </c>
       <c r="S53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>339.93326171342295</v>
       </c>
       <c r="T53">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2426.3663468109648</v>
       </c>
       <c r="U53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3822.395367647835</v>
       </c>
       <c r="V53">
@@ -53595,11 +54821,11 @@
         <v>4527630.0449338919</v>
       </c>
       <c r="AO53">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1387442.8764537526</v>
       </c>
       <c r="AP53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>986626.04547822406</v>
       </c>
       <c r="AR53" s="3">
@@ -53654,42 +54880,42 @@
         <v>2</v>
       </c>
       <c r="BI53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>26.319233632191466</v>
       </c>
       <c r="BJ53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5412101.2639262537</v>
       </c>
       <c r="BL53">
         <v>2069</v>
       </c>
       <c r="BM53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1.7916244311457727</v>
       </c>
       <c r="BN53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>82.477757213853764</v>
       </c>
       <c r="BO53">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>19.266232830267871</v>
       </c>
       <c r="BP53">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>8.9543773179669586</v>
       </c>
       <c r="BQ53">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>13.63844418529197</v>
       </c>
       <c r="BR53">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>23.989096443422739</v>
       </c>
       <c r="BS53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>150.11753242194908</v>
       </c>
       <c r="BT53">
@@ -53697,15 +54923,39 @@
         <v>2.773738426192068E-2</v>
       </c>
       <c r="BU53">
+        <f t="shared" si="27"/>
+        <v>0.15980209677304308</v>
+      </c>
+      <c r="BV53">
         <f t="shared" si="28"/>
-        <v>0.15980209677304308</v>
-      </c>
-      <c r="BV53">
-        <f t="shared" si="29"/>
         <v>0.54942121605107386</v>
       </c>
+      <c r="BX53">
+        <f t="shared" si="32"/>
+        <v>4.4324921640545309E-3</v>
+      </c>
+      <c r="BY53">
+        <f t="shared" si="33"/>
+        <v>1.5388863639992135E-2</v>
+      </c>
+      <c r="BZ53">
+        <f t="shared" si="34"/>
+        <v>2.330489209786615E-2</v>
+      </c>
+      <c r="CA53">
+        <f>childcare!Y52/'social care receipt'!BJ53*1000</f>
+        <v>8.9656216445396374E-4</v>
+      </c>
+      <c r="CB53">
+        <f t="shared" si="35"/>
+        <v>5.2577401685801242</v>
+      </c>
+      <c r="CC53">
+        <f t="shared" si="36"/>
+        <v>1.5143998051488394</v>
+      </c>
     </row>
-    <row r="54" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2070</v>
       </c>
@@ -53757,30 +55007,30 @@
         <v>9458</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" ref="O54" si="45">L54+I54+G54</f>
+        <f t="shared" ref="O54" si="50">L54+I54+G54</f>
         <v>106380</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" ref="P54" si="46">H54+J54+M54</f>
+        <f t="shared" ref="P54" si="51">H54+J54+M54</f>
         <v>17128</v>
       </c>
       <c r="R54">
         <v>2070</v>
       </c>
       <c r="S54">
-        <f t="shared" ref="S54" si="47">$Q$3*H54/1000</f>
+        <f t="shared" ref="S54" si="52">$Q$3*H54/1000</f>
         <v>343.44577532469827</v>
       </c>
       <c r="T54">
-        <f t="shared" ref="T54" si="48">$Q$3*J54/1000</f>
+        <f t="shared" ref="T54" si="53">$Q$3*J54/1000</f>
         <v>2447.4414284786167</v>
       </c>
       <c r="U54">
-        <f t="shared" ref="U54" si="49">$Q$3*M54/1000</f>
+        <f t="shared" ref="U54" si="54">$Q$3*M54/1000</f>
         <v>3893.8164777437669</v>
       </c>
       <c r="V54">
-        <f t="shared" ref="V54" si="50">SUM(S54:U54)</f>
+        <f t="shared" ref="V54" si="55">SUM(S54:U54)</f>
         <v>6684.7036815470819</v>
       </c>
       <c r="X54">
@@ -53796,7 +55046,7 @@
         <v>0.93569449940641081</v>
       </c>
       <c r="AB54">
-        <f t="shared" ref="AB54" si="51">X54</f>
+        <f t="shared" ref="AB54" si="56">X54</f>
         <v>0.30576789437109103</v>
       </c>
       <c r="AC54">
@@ -53826,15 +55076,15 @@
         <v>2522</v>
       </c>
       <c r="AN54">
-        <f t="shared" ref="AN54" si="52">AJ54*$Q$3</f>
+        <f t="shared" ref="AN54" si="57">AJ54*$Q$3</f>
         <v>4597490.037869256</v>
       </c>
       <c r="AO54">
-        <f t="shared" ref="AO54" si="53">AK54*$Q$3</f>
+        <f t="shared" ref="AO54" si="58">AK54*$Q$3</f>
         <v>1428422.2019186313</v>
       </c>
       <c r="AP54">
-        <f t="shared" ref="AP54" si="54">AL54*$Q$3</f>
+        <f t="shared" ref="AP54" si="59">AL54*$Q$3</f>
         <v>984284.3697373739</v>
       </c>
       <c r="AR54" s="3">
@@ -53856,27 +55106,27 @@
         <v>0.41595749999999998</v>
       </c>
       <c r="AY54">
-        <f t="shared" ref="AY54" si="55">AR54*$O54*$Q$3*364.25/7</f>
+        <f t="shared" ref="AY54" si="60">AR54*$O54*$Q$3*364.25/7</f>
         <v>68299332.892761797</v>
       </c>
       <c r="AZ54">
-        <f t="shared" ref="AZ54" si="56">AS54*$O54*$Q$3*364.25/7</f>
+        <f t="shared" ref="AZ54" si="61">AS54*$O54*$Q$3*364.25/7</f>
         <v>3147045044.4178395</v>
       </c>
       <c r="BA54">
-        <f t="shared" ref="BA54" si="57">AT54*$O54*$Q$3*364.25/7</f>
+        <f t="shared" ref="BA54" si="62">AT54*$O54*$Q$3*364.25/7</f>
         <v>750535652.70272195</v>
       </c>
       <c r="BB54">
-        <f t="shared" ref="BB54" si="58">AU54*$O54*$Q$3*364.25/7</f>
+        <f t="shared" ref="BB54" si="63">AU54*$O54*$Q$3*364.25/7</f>
         <v>334551581.10041416</v>
       </c>
       <c r="BC54">
-        <f t="shared" ref="BC54" si="59">AV54*$O54*$Q$3*364.25/7</f>
+        <f t="shared" ref="BC54" si="64">AV54*$O54*$Q$3*364.25/7</f>
         <v>508095273.19914812</v>
       </c>
       <c r="BD54">
-        <f t="shared" ref="BD54" si="60">AW54*$O54*$Q$3*364.25/7</f>
+        <f t="shared" ref="BD54" si="65">AW54*$O54*$Q$3*364.25/7</f>
         <v>898640468.20209277</v>
       </c>
       <c r="BF54">
@@ -53889,82 +55139,106 @@
         <v>2</v>
       </c>
       <c r="BI54">
-        <f t="shared" ref="BI54" si="61">BI53*(1+BG53/100)/(1+BH53/100)</f>
+        <f t="shared" ref="BI54" si="66">BI53*(1+BG53/100)/(1+BH53/100)</f>
         <v>26.792592790017494</v>
       </c>
       <c r="BJ54">
-        <f t="shared" ref="BJ54" si="62">BJ53*(1+BF53/100)</f>
+        <f t="shared" ref="BJ54" si="67">BJ53*(1+BF53/100)</f>
         <v>5506591.937462368</v>
       </c>
       <c r="BL54">
         <v>2070</v>
       </c>
       <c r="BM54">
-        <f t="shared" ref="BM54" si="63">AY54*$BI54/10^9</f>
+        <f t="shared" ref="BM54" si="68">AY54*$BI54/10^9</f>
         <v>1.8299162140256144</v>
       </c>
       <c r="BN54">
-        <f t="shared" ref="BN54" si="64">AZ54*$BI54/10^9</f>
+        <f t="shared" ref="BN54" si="69">AZ54*$BI54/10^9</f>
         <v>84.317496366929689</v>
       </c>
       <c r="BO54">
-        <f t="shared" ref="BO54" si="65">BA54*$BI54/10^9</f>
+        <f t="shared" ref="BO54" si="70">BA54*$BI54/10^9</f>
         <v>20.10879611725402</v>
       </c>
       <c r="BP54">
-        <f t="shared" ref="BP54" si="66">BB54*$BI54/10^9</f>
+        <f t="shared" ref="BP54" si="71">BB54*$BI54/10^9</f>
         <v>8.963504279679908</v>
       </c>
       <c r="BQ54">
-        <f t="shared" ref="BQ54" si="67">BC54*$BI54/10^9</f>
+        <f t="shared" ref="BQ54" si="72">BC54*$BI54/10^9</f>
         <v>13.613189753357464</v>
       </c>
       <c r="BR54">
-        <f t="shared" ref="BR54" si="68">BD54*$BI54/10^9</f>
+        <f t="shared" ref="BR54" si="73">BD54*$BI54/10^9</f>
         <v>24.076908129169336</v>
       </c>
       <c r="BS54">
-        <f t="shared" ref="BS54" si="69">SUM(BM54:BR54)</f>
+        <f t="shared" ref="BS54" si="74">SUM(BM54:BR54)</f>
         <v>152.90981086041603</v>
       </c>
       <c r="BT54">
-        <f t="shared" ref="BT54" si="70">BS54/BJ54*1000</f>
+        <f t="shared" ref="BT54" si="75">BS54/BJ54*1000</f>
         <v>2.7768502296337264E-2</v>
       </c>
       <c r="BU54">
-        <f t="shared" ref="BU54" si="71">BR54/BS54</f>
+        <f t="shared" ref="BU54" si="76">BR54/BS54</f>
         <v>0.15745822974791318</v>
       </c>
       <c r="BV54">
-        <f t="shared" ref="BV54" si="72">BN54/BS54</f>
+        <f t="shared" ref="BV54" si="77">BN54/BS54</f>
         <v>0.55141979374952632</v>
       </c>
+      <c r="BX54">
+        <f t="shared" si="32"/>
+        <v>4.3723792143321276E-3</v>
+      </c>
+      <c r="BY54">
+        <f t="shared" si="33"/>
+        <v>1.5180161638491119E-2</v>
+      </c>
+      <c r="BZ54">
+        <f t="shared" si="34"/>
+        <v>2.3396123082005137E-2</v>
+      </c>
+      <c r="CA54">
+        <f>childcare!Y53/'social care receipt'!BJ54*1000</f>
+        <v>8.9314793481253202E-4</v>
+      </c>
+      <c r="CB54">
+        <f t="shared" si="35"/>
+        <v>5.3508906558963343</v>
+      </c>
+      <c r="CC54">
+        <f t="shared" si="36"/>
+        <v>1.5412301686354553</v>
+      </c>
     </row>
-    <row r="56" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.25">
       <c r="AF56">
         <f>AVERAGE(AF4:AF8)</f>
         <v>50.377532000000002</v>
       </c>
       <c r="AG56">
-        <f t="shared" ref="AG56:AH56" si="73">AVERAGE(AG4:AG8)</f>
+        <f t="shared" ref="AG56:AH56" si="78">AVERAGE(AG4:AG8)</f>
         <v>16.521307999999998</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>14.985712000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
       <c r="AF57">
         <f>AVERAGE(AF50:AF54)</f>
         <v>49.814929999999997</v>
       </c>
       <c r="AG57">
-        <f t="shared" ref="AG57:AH57" si="74">AVERAGE(AG50:AG54)</f>
+        <f t="shared" ref="AG57:AH57" si="79">AVERAGE(AG50:AG54)</f>
         <v>15.450400000000002</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>14.195017999999999</v>
       </c>
     </row>
